--- a/finalReport/FalsePositives.xlsx
+++ b/finalReport/FalsePositives.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="FalsePositives" sheetId="1" r:id="rId1"/>
+    <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FalsePositives!$A$7:$E$993</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FalsePositives!$A$7:$E$992</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -5259,11 +5260,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E993"/>
+  <dimension ref="A1:E992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
-      <selection activeCell="E506" sqref="E506"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12593,13 +12592,13 @@
         <v>516</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E443" s="6" t="s">
         <v>8</v>
@@ -12610,10 +12609,10 @@
         <v>516</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>675</v>
@@ -12627,13 +12626,13 @@
         <v>516</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>1356</v>
+        <v>687</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="E445" s="6" t="s">
         <v>8</v>
@@ -12644,13 +12643,13 @@
         <v>516</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E446" s="6" t="s">
         <v>8</v>
@@ -12658,16 +12657,13 @@
     </row>
     <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="8" t="s">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>657</v>
+        <v>106</v>
       </c>
       <c r="E447" s="6" t="s">
         <v>8</v>
@@ -12675,13 +12671,16 @@
     </row>
     <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
-        <v>398</v>
+        <v>552</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>692</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>106</v>
+        <v>693</v>
       </c>
       <c r="E448" s="6" t="s">
         <v>8</v>
@@ -12692,10 +12691,10 @@
         <v>552</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>693</v>
@@ -12709,10 +12708,10 @@
         <v>552</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>693</v>
@@ -12723,16 +12722,16 @@
     </row>
     <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="8" t="s">
-        <v>552</v>
+        <v>239</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>693</v>
+        <v>530</v>
       </c>
       <c r="E451" s="6" t="s">
         <v>8</v>
@@ -12740,13 +12739,13 @@
     </row>
     <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>530</v>
@@ -12760,10 +12759,10 @@
         <v>584</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>530</v>
@@ -12777,10 +12776,10 @@
         <v>584</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>530</v>
@@ -12794,10 +12793,10 @@
         <v>584</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>530</v>
@@ -12808,13 +12807,13 @@
     </row>
     <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="s">
-        <v>584</v>
+        <v>223</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>530</v>
@@ -12825,13 +12824,13 @@
     </row>
     <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="8" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>530</v>
@@ -12842,13 +12841,13 @@
     </row>
     <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>530</v>
@@ -12859,13 +12858,13 @@
     </row>
     <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="8" t="s">
-        <v>137</v>
+        <v>537</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>530</v>
@@ -12879,10 +12878,10 @@
         <v>537</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>530</v>
@@ -12893,13 +12892,13 @@
     </row>
     <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="8" t="s">
-        <v>537</v>
+        <v>223</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>530</v>
@@ -12910,13 +12909,13 @@
     </row>
     <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>530</v>
@@ -12930,10 +12929,10 @@
         <v>584</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>530</v>
@@ -12947,10 +12946,10 @@
         <v>584</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>530</v>
@@ -12964,10 +12963,10 @@
         <v>584</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>530</v>
@@ -12978,13 +12977,13 @@
     </row>
     <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>530</v>
@@ -12995,13 +12994,13 @@
     </row>
     <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>530</v>
@@ -13012,16 +13011,16 @@
     </row>
     <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="s">
-        <v>131</v>
+        <v>608</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>731</v>
+        <v>1357</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>530</v>
+        <v>693</v>
       </c>
       <c r="E468" s="6" t="s">
         <v>8</v>
@@ -13029,16 +13028,13 @@
     </row>
     <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>1357</v>
+        <v>733</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="E469" s="6" t="s">
         <v>8</v>
@@ -13046,13 +13042,16 @@
     </row>
     <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="E470" s="6" t="s">
         <v>8</v>
@@ -13060,16 +13059,16 @@
     </row>
     <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
-        <v>613</v>
+        <v>38</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>657</v>
+        <v>106</v>
       </c>
       <c r="E471" s="6" t="s">
         <v>8</v>
@@ -13077,16 +13076,16 @@
     </row>
     <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>106</v>
+        <v>530</v>
       </c>
       <c r="E472" s="6" t="s">
         <v>8</v>
@@ -13097,10 +13096,10 @@
         <v>131</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>530</v>
@@ -13111,13 +13110,13 @@
     </row>
     <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
-        <v>131</v>
+        <v>743</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>530</v>
@@ -13128,13 +13127,13 @@
     </row>
     <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>743</v>
+        <v>584</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>530</v>
@@ -13145,13 +13144,13 @@
     </row>
     <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
-        <v>584</v>
+        <v>131</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>530</v>
@@ -13162,13 +13161,13 @@
     </row>
     <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
-        <v>131</v>
+        <v>584</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>530</v>
@@ -13179,13 +13178,13 @@
     </row>
     <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>530</v>
@@ -13196,13 +13195,13 @@
     </row>
     <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="8" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>530</v>
@@ -13213,13 +13212,13 @@
     </row>
     <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="s">
-        <v>677</v>
+        <v>584</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>530</v>
@@ -13230,13 +13229,10 @@
     </row>
     <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="8" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C481" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>530</v>
@@ -13247,10 +13243,13 @@
     </row>
     <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>530</v>
@@ -13261,13 +13260,13 @@
     </row>
     <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
-        <v>552</v>
+        <v>131</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>530</v>
@@ -13278,13 +13277,13 @@
     </row>
     <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>530</v>
@@ -13295,13 +13294,13 @@
     </row>
     <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
-        <v>346</v>
+        <v>765</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>530</v>
@@ -13312,13 +13311,13 @@
     </row>
     <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
-        <v>765</v>
+        <v>154</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>530</v>
@@ -13329,16 +13328,16 @@
     </row>
     <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>769</v>
+        <v>1343</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>530</v>
+        <v>772</v>
       </c>
       <c r="E487" s="6" t="s">
         <v>8</v>
@@ -13346,16 +13345,16 @@
     </row>
     <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="s">
-        <v>770</v>
+        <v>253</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1343</v>
+        <v>774</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E488" s="6" t="s">
         <v>8</v>
@@ -13363,16 +13362,16 @@
     </row>
     <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="8" t="s">
-        <v>253</v>
+        <v>584</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>775</v>
+        <v>693</v>
       </c>
       <c r="E489" s="6" t="s">
         <v>8</v>
@@ -13380,16 +13379,16 @@
     </row>
     <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
-        <v>584</v>
+        <v>202</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>693</v>
+        <v>530</v>
       </c>
       <c r="E490" s="6" t="s">
         <v>8</v>
@@ -13397,13 +13396,13 @@
     </row>
     <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
-        <v>202</v>
+        <v>552</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>530</v>
@@ -13414,13 +13413,13 @@
     </row>
     <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>530</v>
@@ -13431,13 +13430,13 @@
     </row>
     <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>530</v>
@@ -13448,13 +13447,13 @@
     </row>
     <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
-        <v>572</v>
+        <v>786</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>530</v>
@@ -13465,13 +13464,13 @@
     </row>
     <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>786</v>
+        <v>605</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>530</v>
@@ -13482,13 +13481,13 @@
     </row>
     <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
-        <v>605</v>
+        <v>791</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>530</v>
@@ -13499,13 +13498,13 @@
     </row>
     <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
-        <v>791</v>
+        <v>537</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>530</v>
@@ -13519,10 +13518,10 @@
         <v>537</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>530</v>
@@ -13533,13 +13532,13 @@
     </row>
     <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="8" t="s">
-        <v>537</v>
+        <v>202</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>530</v>
@@ -13550,13 +13549,13 @@
     </row>
     <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="s">
-        <v>202</v>
+        <v>800</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>798</v>
+        <v>209</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>799</v>
+        <v>210</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>530</v>
@@ -13570,10 +13569,10 @@
         <v>800</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>530</v>
@@ -13587,10 +13586,10 @@
         <v>800</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>530</v>
@@ -13601,13 +13600,13 @@
     </row>
     <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
-        <v>800</v>
+        <v>131</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>203</v>
+        <v>801</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>204</v>
+        <v>802</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>530</v>
@@ -13618,16 +13617,16 @@
     </row>
     <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="s">
-        <v>131</v>
+        <v>803</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="E504" s="6" t="s">
         <v>8</v>
@@ -13635,19 +13634,19 @@
     </row>
     <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
-        <v>803</v>
+        <v>26</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>804</v>
+        <v>264</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>805</v>
+        <v>265</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>106</v>
+        <v>806</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>8</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13655,10 +13654,10 @@
         <v>26</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>806</v>
@@ -13672,10 +13671,10 @@
         <v>26</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>806</v>
@@ -13689,10 +13688,10 @@
         <v>26</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>268</v>
+        <v>807</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>269</v>
+        <v>808</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>806</v>
@@ -13706,10 +13705,10 @@
         <v>26</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>806</v>
@@ -13720,13 +13719,10 @@
     </row>
     <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>810</v>
+        <v>275</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>806</v>
@@ -13740,7 +13736,10 @@
         <v>274</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>806</v>
@@ -13751,13 +13750,13 @@
     </row>
     <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
-        <v>274</v>
+        <v>602</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>276</v>
+        <v>603</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>277</v>
+        <v>604</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>806</v>
@@ -13768,13 +13767,13 @@
     </row>
     <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="8" t="s">
-        <v>602</v>
+        <v>786</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>603</v>
+        <v>787</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>604</v>
+        <v>788</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>806</v>
@@ -13788,10 +13787,10 @@
         <v>786</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>787</v>
+        <v>639</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>806</v>
@@ -13805,13 +13804,13 @@
         <v>786</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>639</v>
+        <v>812</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E515" s="6" t="s">
         <v>1427</v>
@@ -13819,16 +13818,16 @@
     </row>
     <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="s">
-        <v>786</v>
+        <v>814</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E516" s="6" t="s">
         <v>1427</v>
@@ -13839,10 +13838,10 @@
         <v>814</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>787</v>
+        <v>639</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>806</v>
@@ -13856,13 +13855,13 @@
         <v>814</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>639</v>
+        <v>812</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E518" s="6" t="s">
         <v>1427</v>
@@ -13870,16 +13869,16 @@
     </row>
     <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>814</v>
+        <v>677</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>812</v>
+        <v>754</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>813</v>
+        <v>755</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E519" s="6" t="s">
         <v>1427</v>
@@ -13887,13 +13886,13 @@
     </row>
     <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
-        <v>677</v>
+        <v>537</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>754</v>
+        <v>538</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>755</v>
+        <v>539</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>806</v>
@@ -13907,10 +13906,10 @@
         <v>537</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>806</v>
@@ -13924,10 +13923,10 @@
         <v>537</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>806</v>
@@ -13941,10 +13940,10 @@
         <v>537</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>806</v>
@@ -13958,10 +13957,10 @@
         <v>537</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D524" s="3" t="s">
         <v>806</v>
@@ -13975,10 +13974,10 @@
         <v>537</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>806</v>
@@ -13992,10 +13991,10 @@
         <v>537</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>806</v>
@@ -14009,10 +14008,10 @@
         <v>537</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>550</v>
+        <v>714</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>551</v>
+        <v>715</v>
       </c>
       <c r="D527" s="3" t="s">
         <v>806</v>
@@ -14026,10 +14025,10 @@
         <v>537</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>806</v>
@@ -14043,10 +14042,7 @@
         <v>537</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="C529" s="7" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="D529" s="3" t="s">
         <v>806</v>
@@ -14060,7 +14056,10 @@
         <v>537</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>758</v>
+        <v>794</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>795</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>806</v>
@@ -14074,10 +14073,10 @@
         <v>537</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>806</v>
@@ -14088,13 +14087,13 @@
     </row>
     <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="s">
-        <v>537</v>
+        <v>815</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>796</v>
+        <v>141</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>797</v>
+        <v>142</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>806</v>
@@ -14105,13 +14104,13 @@
     </row>
     <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="8" t="s">
-        <v>815</v>
+        <v>131</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>806</v>
@@ -14125,10 +14124,10 @@
         <v>131</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>806</v>
@@ -14142,10 +14141,10 @@
         <v>131</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>293</v>
+        <v>816</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>294</v>
+        <v>817</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>806</v>
@@ -14159,10 +14158,10 @@
         <v>131</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>816</v>
+        <v>295</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>817</v>
+        <v>296</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>806</v>
@@ -14176,10 +14175,10 @@
         <v>131</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>295</v>
+        <v>629</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>296</v>
+        <v>630</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>806</v>
@@ -14193,10 +14192,10 @@
         <v>131</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>806</v>
@@ -14210,10 +14209,10 @@
         <v>131</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>806</v>
@@ -14227,10 +14226,10 @@
         <v>131</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>806</v>
@@ -14244,10 +14243,10 @@
         <v>131</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>297</v>
+        <v>741</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>298</v>
+        <v>742</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>806</v>
@@ -14261,10 +14260,10 @@
         <v>131</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>741</v>
+        <v>303</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>742</v>
+        <v>304</v>
       </c>
       <c r="D542" s="3" t="s">
         <v>806</v>
@@ -14278,10 +14277,10 @@
         <v>131</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>806</v>
@@ -14295,10 +14294,10 @@
         <v>131</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>806</v>
@@ -14312,10 +14311,10 @@
         <v>131</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>806</v>
@@ -14329,10 +14328,10 @@
         <v>131</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>309</v>
+        <v>801</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>310</v>
+        <v>802</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>806</v>
@@ -14346,10 +14345,10 @@
         <v>131</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>801</v>
+        <v>311</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>802</v>
+        <v>312</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>806</v>
@@ -14363,10 +14362,10 @@
         <v>131</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>806</v>
@@ -14380,10 +14379,10 @@
         <v>131</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>313</v>
+        <v>631</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>314</v>
+        <v>632</v>
       </c>
       <c r="D549" s="3" t="s">
         <v>806</v>
@@ -14397,10 +14396,10 @@
         <v>131</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>806</v>
@@ -14414,10 +14413,10 @@
         <v>131</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>633</v>
+        <v>748</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>634</v>
+        <v>749</v>
       </c>
       <c r="D551" s="3" t="s">
         <v>806</v>
@@ -14431,10 +14430,10 @@
         <v>131</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>748</v>
+        <v>315</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>749</v>
+        <v>316</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>806</v>
@@ -14448,10 +14447,10 @@
         <v>131</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>315</v>
+        <v>739</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>316</v>
+        <v>740</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>806</v>
@@ -14465,10 +14464,10 @@
         <v>131</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>739</v>
+        <v>317</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>740</v>
+        <v>318</v>
       </c>
       <c r="D554" s="3" t="s">
         <v>806</v>
@@ -14482,10 +14481,10 @@
         <v>131</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>317</v>
+        <v>761</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>318</v>
+        <v>762</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>806</v>
@@ -14499,10 +14498,10 @@
         <v>131</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>761</v>
+        <v>319</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>762</v>
+        <v>320</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>806</v>
@@ -14516,10 +14515,10 @@
         <v>131</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>806</v>
@@ -14533,10 +14532,10 @@
         <v>131</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>806</v>
@@ -14550,10 +14549,10 @@
         <v>131</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>806</v>
@@ -14567,10 +14566,10 @@
         <v>131</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="D560" s="3" t="s">
         <v>806</v>
@@ -14584,10 +14583,10 @@
         <v>131</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="D561" s="3" t="s">
         <v>806</v>
@@ -14601,10 +14600,10 @@
         <v>131</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D562" s="3" t="s">
         <v>806</v>
@@ -14618,10 +14617,10 @@
         <v>131</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>329</v>
+        <v>730</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>330</v>
+        <v>731</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>806</v>
@@ -14635,10 +14634,10 @@
         <v>131</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>730</v>
+        <v>331</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>731</v>
+        <v>332</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>806</v>
@@ -14652,13 +14651,13 @@
         <v>131</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E565" s="6" t="s">
         <v>1427</v>
@@ -14669,13 +14668,13 @@
         <v>131</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E566" s="6" t="s">
         <v>1427</v>
@@ -14686,10 +14685,10 @@
         <v>131</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>806</v>
@@ -14700,13 +14699,13 @@
     </row>
     <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="D568" s="3" t="s">
         <v>806</v>
@@ -14720,10 +14719,7 @@
         <v>343</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C569" s="7" t="s">
-        <v>345</v>
+        <v>818</v>
       </c>
       <c r="D569" s="3" t="s">
         <v>806</v>
@@ -14737,7 +14733,7 @@
         <v>343</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D570" s="3" t="s">
         <v>806</v>
@@ -14748,10 +14744,10 @@
     </row>
     <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>343</v>
+        <v>820</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="D571" s="3" t="s">
         <v>806</v>
@@ -14765,7 +14761,10 @@
         <v>820</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>344</v>
+        <v>818</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>821</v>
       </c>
       <c r="D572" s="3" t="s">
         <v>806</v>
@@ -14779,10 +14778,10 @@
         <v>820</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>821</v>
+        <v>345</v>
       </c>
       <c r="D573" s="3" t="s">
         <v>806</v>
@@ -14793,13 +14792,13 @@
     </row>
     <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>345</v>
+        <v>824</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>806</v>
@@ -14813,10 +14812,10 @@
         <v>822</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>806</v>
@@ -14830,10 +14829,10 @@
         <v>822</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>806</v>
@@ -14847,10 +14846,10 @@
         <v>822</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D577" s="3" t="s">
         <v>806</v>
@@ -14864,10 +14863,10 @@
         <v>822</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D578" s="3" t="s">
         <v>806</v>
@@ -14881,10 +14880,10 @@
         <v>822</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D579" s="3" t="s">
         <v>806</v>
@@ -14898,10 +14897,10 @@
         <v>822</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D580" s="3" t="s">
         <v>806</v>
@@ -14915,10 +14914,10 @@
         <v>822</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D581" s="3" t="s">
         <v>806</v>
@@ -14932,10 +14931,10 @@
         <v>822</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>837</v>
+        <v>737</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D582" s="3" t="s">
         <v>806</v>
@@ -14946,16 +14945,16 @@
     </row>
     <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="8" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E583" s="6" t="s">
         <v>1427</v>
@@ -14966,10 +14965,10 @@
         <v>840</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>392</v>
@@ -14983,10 +14982,10 @@
         <v>840</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D585" s="3" t="s">
         <v>392</v>
@@ -15000,10 +14999,10 @@
         <v>840</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>392</v>
@@ -15017,10 +15016,10 @@
         <v>840</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D587" s="3" t="s">
         <v>392</v>
@@ -15034,10 +15033,10 @@
         <v>840</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D588" s="3" t="s">
         <v>392</v>
@@ -15051,10 +15050,10 @@
         <v>840</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D589" s="3" t="s">
         <v>392</v>
@@ -15065,16 +15064,16 @@
     </row>
     <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
-        <v>840</v>
+        <v>346</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E590" s="6" t="s">
         <v>1427</v>
@@ -15085,13 +15084,13 @@
         <v>346</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="E591" s="6" t="s">
         <v>1427</v>
@@ -15102,13 +15101,13 @@
         <v>346</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>857</v>
+        <v>352</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>858</v>
+        <v>353</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>859</v>
+        <v>806</v>
       </c>
       <c r="E592" s="6" t="s">
         <v>1427</v>
@@ -15119,13 +15118,13 @@
         <v>346</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>352</v>
+        <v>860</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>353</v>
+        <v>861</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="E593" s="6" t="s">
         <v>1427</v>
@@ -15136,13 +15135,13 @@
         <v>346</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>860</v>
+        <v>354</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>861</v>
+        <v>355</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>859</v>
+        <v>806</v>
       </c>
       <c r="E594" s="6" t="s">
         <v>1427</v>
@@ -15153,10 +15152,10 @@
         <v>346</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>806</v>
@@ -15170,10 +15169,10 @@
         <v>346</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D596" s="3" t="s">
         <v>806</v>
@@ -15187,10 +15186,7 @@
         <v>346</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C597" s="7" t="s">
-        <v>349</v>
+        <v>639</v>
       </c>
       <c r="D597" s="3" t="s">
         <v>806</v>
@@ -15204,7 +15200,7 @@
         <v>346</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>639</v>
+        <v>357</v>
       </c>
       <c r="D598" s="3" t="s">
         <v>806</v>
@@ -15218,7 +15214,10 @@
         <v>346</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>357</v>
+        <v>637</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>638</v>
       </c>
       <c r="D599" s="3" t="s">
         <v>806</v>
@@ -15232,10 +15231,10 @@
         <v>346</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>637</v>
+        <v>350</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>638</v>
+        <v>351</v>
       </c>
       <c r="D600" s="3" t="s">
         <v>806</v>
@@ -15249,10 +15248,10 @@
         <v>346</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>350</v>
+        <v>862</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>351</v>
+        <v>863</v>
       </c>
       <c r="D601" s="3" t="s">
         <v>806</v>
@@ -15266,10 +15265,10 @@
         <v>346</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>862</v>
+        <v>763</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>863</v>
+        <v>764</v>
       </c>
       <c r="D602" s="3" t="s">
         <v>806</v>
@@ -15283,10 +15282,7 @@
         <v>346</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="C603" s="7" t="s">
-        <v>764</v>
+        <v>356</v>
       </c>
       <c r="D603" s="3" t="s">
         <v>806</v>
@@ -15297,10 +15293,13 @@
     </row>
     <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="8" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>356</v>
+        <v>235</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="D604" s="3" t="s">
         <v>806</v>
@@ -15314,10 +15313,10 @@
         <v>223</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D605" s="3" t="s">
         <v>806</v>
@@ -15331,10 +15330,10 @@
         <v>223</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D606" s="3" t="s">
         <v>806</v>
@@ -15348,10 +15347,10 @@
         <v>223</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>230</v>
+        <v>708</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>231</v>
+        <v>709</v>
       </c>
       <c r="D607" s="3" t="s">
         <v>806</v>
@@ -15365,10 +15364,10 @@
         <v>223</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>708</v>
+        <v>232</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>709</v>
+        <v>233</v>
       </c>
       <c r="D608" s="3" t="s">
         <v>806</v>
@@ -15382,10 +15381,10 @@
         <v>223</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D609" s="3" t="s">
         <v>806</v>
@@ -15399,10 +15398,7 @@
         <v>223</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C610" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D610" s="3" t="s">
         <v>806</v>
@@ -15416,7 +15412,10 @@
         <v>223</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D611" s="3" t="s">
         <v>806</v>
@@ -15430,10 +15429,10 @@
         <v>223</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>226</v>
+        <v>864</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>227</v>
+        <v>865</v>
       </c>
       <c r="D612" s="3" t="s">
         <v>806</v>
@@ -15444,13 +15443,13 @@
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="8" t="s">
-        <v>223</v>
+        <v>791</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>864</v>
+        <v>792</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>865</v>
+        <v>793</v>
       </c>
       <c r="D613" s="3" t="s">
         <v>806</v>
@@ -15461,13 +15460,13 @@
     </row>
     <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="8" t="s">
-        <v>791</v>
+        <v>137</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>793</v>
+        <v>713</v>
       </c>
       <c r="D614" s="3" t="s">
         <v>806</v>
@@ -15481,10 +15480,10 @@
         <v>137</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>712</v>
+        <v>866</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>713</v>
+        <v>867</v>
       </c>
       <c r="D615" s="3" t="s">
         <v>806</v>
@@ -15498,10 +15497,10 @@
         <v>137</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D616" s="3" t="s">
         <v>806</v>
@@ -15515,10 +15514,10 @@
         <v>137</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D617" s="3" t="s">
         <v>806</v>
@@ -15532,10 +15531,10 @@
         <v>137</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D618" s="3" t="s">
         <v>806</v>
@@ -15549,10 +15548,10 @@
         <v>137</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>806</v>
@@ -15566,13 +15565,13 @@
         <v>137</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E620" s="6" t="s">
         <v>1427</v>
@@ -15580,16 +15579,16 @@
     </row>
     <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="8" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>876</v>
+        <v>279</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>877</v>
+        <v>280</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E621" s="6" t="s">
         <v>1427</v>
@@ -15597,13 +15596,13 @@
     </row>
     <row r="622" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="8" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D622" s="3" t="s">
         <v>806</v>
@@ -15617,10 +15616,10 @@
         <v>123</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D623" s="3" t="s">
         <v>806</v>
@@ -15634,10 +15633,10 @@
         <v>123</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>284</v>
+        <v>729</v>
       </c>
       <c r="D624" s="3" t="s">
         <v>806</v>
@@ -15651,10 +15650,10 @@
         <v>123</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>728</v>
+        <v>878</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>729</v>
+        <v>879</v>
       </c>
       <c r="D625" s="3" t="s">
         <v>806</v>
@@ -15668,10 +15667,10 @@
         <v>123</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>878</v>
+        <v>357</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D626" s="3" t="s">
         <v>806</v>
@@ -15682,13 +15681,13 @@
     </row>
     <row r="627" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="8" t="s">
-        <v>123</v>
+        <v>605</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>357</v>
+        <v>606</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>880</v>
+        <v>607</v>
       </c>
       <c r="D627" s="3" t="s">
         <v>806</v>
@@ -15702,10 +15701,10 @@
         <v>605</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>606</v>
+        <v>789</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>607</v>
+        <v>790</v>
       </c>
       <c r="D628" s="3" t="s">
         <v>806</v>
@@ -15716,13 +15715,13 @@
     </row>
     <row r="629" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="8" t="s">
-        <v>605</v>
+        <v>358</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>789</v>
+        <v>359</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>790</v>
+        <v>360</v>
       </c>
       <c r="D629" s="3" t="s">
         <v>806</v>
@@ -15736,10 +15735,10 @@
         <v>358</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D630" s="3" t="s">
         <v>806</v>
@@ -15750,13 +15749,13 @@
     </row>
     <row r="631" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="8" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>361</v>
+        <v>254</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>362</v>
+        <v>255</v>
       </c>
       <c r="D631" s="3" t="s">
         <v>806</v>
@@ -15770,10 +15769,10 @@
         <v>253</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>806</v>
@@ -15787,10 +15786,10 @@
         <v>253</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>256</v>
+        <v>881</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>257</v>
+        <v>882</v>
       </c>
       <c r="D633" s="3" t="s">
         <v>806</v>
@@ -15804,10 +15803,10 @@
         <v>253</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>806</v>
@@ -15821,13 +15820,13 @@
         <v>253</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>806</v>
+        <v>887</v>
       </c>
       <c r="E635" s="6" t="s">
         <v>1427</v>
@@ -15838,13 +15837,13 @@
         <v>253</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>885</v>
+        <v>758</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>887</v>
+        <v>806</v>
       </c>
       <c r="E636" s="6" t="s">
         <v>1427</v>
@@ -15855,10 +15854,10 @@
         <v>253</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>758</v>
+        <v>889</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D637" s="3" t="s">
         <v>806</v>
@@ -15872,10 +15871,10 @@
         <v>253</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D638" s="3" t="s">
         <v>806</v>
@@ -15889,10 +15888,10 @@
         <v>253</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>806</v>
@@ -15906,10 +15905,10 @@
         <v>253</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D640" s="3" t="s">
         <v>806</v>
@@ -15920,16 +15919,16 @@
     </row>
     <row r="641" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="8" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="E641" s="6" t="s">
         <v>1427</v>
@@ -15940,10 +15939,10 @@
         <v>194</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D642" s="3" t="s">
         <v>859</v>
@@ -15957,10 +15956,10 @@
         <v>194</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D643" s="3" t="s">
         <v>859</v>
@@ -15974,13 +15973,13 @@
         <v>194</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="D644" s="3" t="s">
-        <v>859</v>
+        <v>904</v>
+      </c>
+      <c r="D644" s="9" t="s">
+        <v>1360</v>
       </c>
       <c r="E644" s="6" t="s">
         <v>1427</v>
@@ -15991,13 +15990,10 @@
         <v>194</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="C645" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="D645" s="9" t="s">
-        <v>1360</v>
+        <v>569</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E645" s="6" t="s">
         <v>1427</v>
@@ -16008,7 +16004,10 @@
         <v>194</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>569</v>
+        <v>195</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D646" s="3" t="s">
         <v>806</v>
@@ -16022,13 +16021,13 @@
         <v>194</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>195</v>
+        <v>905</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>196</v>
+        <v>906</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E647" s="6" t="s">
         <v>1427</v>
@@ -16039,13 +16038,13 @@
         <v>194</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>905</v>
+        <v>200</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>906</v>
+        <v>201</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E648" s="6" t="s">
         <v>1427</v>
@@ -16056,10 +16055,10 @@
         <v>194</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>201</v>
+        <v>1345</v>
       </c>
       <c r="D649" s="3" t="s">
         <v>806</v>
@@ -16073,13 +16072,13 @@
         <v>194</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>199</v>
+        <v>907</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1345</v>
+        <v>908</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E650" s="6" t="s">
         <v>1427</v>
@@ -16090,10 +16089,10 @@
         <v>194</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D651" s="3" t="s">
         <v>392</v>
@@ -16107,13 +16106,13 @@
         <v>194</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>909</v>
+        <v>197</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>910</v>
+        <v>198</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E652" s="6" t="s">
         <v>1427</v>
@@ -16124,13 +16123,13 @@
         <v>194</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>197</v>
+        <v>911</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>198</v>
+        <v>912</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E653" s="6" t="s">
         <v>1427</v>
@@ -16141,10 +16140,10 @@
         <v>194</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D654" s="3" t="s">
         <v>392</v>
@@ -16158,13 +16157,13 @@
         <v>194</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="D655" s="3" t="s">
-        <v>392</v>
+        <v>916</v>
+      </c>
+      <c r="D655" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="E655" s="6" t="s">
         <v>1427</v>
@@ -16175,13 +16174,13 @@
         <v>194</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="D656" s="9" t="s">
-        <v>859</v>
+        <v>918</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="E656" s="6" t="s">
         <v>1427</v>
@@ -16192,10 +16191,10 @@
         <v>194</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D657" s="3" t="s">
         <v>392</v>
@@ -16209,13 +16208,13 @@
         <v>194</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E658" s="6" t="s">
         <v>1427</v>
@@ -16226,13 +16225,13 @@
         <v>194</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E659" s="6" t="s">
         <v>1427</v>
@@ -16243,10 +16242,10 @@
         <v>194</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D660" s="3" t="s">
         <v>392</v>
@@ -16257,16 +16256,16 @@
     </row>
     <row r="661" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>925</v>
+        <v>245</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>926</v>
+        <v>246</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E661" s="6" t="s">
         <v>1427</v>
@@ -16277,10 +16276,10 @@
         <v>239</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>806</v>
@@ -16294,10 +16293,10 @@
         <v>239</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D663" s="3" t="s">
         <v>806</v>
@@ -16311,10 +16310,10 @@
         <v>239</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D664" s="3" t="s">
         <v>806</v>
@@ -16328,10 +16327,10 @@
         <v>239</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>806</v>
@@ -16345,10 +16344,10 @@
         <v>239</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D666" s="3" t="s">
         <v>806</v>
@@ -16362,10 +16361,10 @@
         <v>239</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>242</v>
+        <v>698</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>243</v>
+        <v>699</v>
       </c>
       <c r="D667" s="3" t="s">
         <v>806</v>
@@ -16379,10 +16378,7 @@
         <v>239</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="C668" s="7" t="s">
-        <v>699</v>
+        <v>244</v>
       </c>
       <c r="D668" s="3" t="s">
         <v>806</v>
@@ -16396,7 +16392,10 @@
         <v>239</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>244</v>
+        <v>710</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>711</v>
       </c>
       <c r="D669" s="3" t="s">
         <v>806</v>
@@ -16407,13 +16406,13 @@
     </row>
     <row r="670" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="8" t="s">
-        <v>239</v>
+        <v>927</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>710</v>
+        <v>928</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>711</v>
+        <v>929</v>
       </c>
       <c r="D670" s="3" t="s">
         <v>806</v>
@@ -16427,10 +16426,10 @@
         <v>927</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>806</v>
@@ -16441,13 +16440,13 @@
     </row>
     <row r="672" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="8" t="s">
-        <v>927</v>
+        <v>597</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>930</v>
+        <v>598</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>931</v>
+        <v>599</v>
       </c>
       <c r="D672" s="3" t="s">
         <v>806</v>
@@ -16461,10 +16460,10 @@
         <v>597</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>598</v>
+        <v>932</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>599</v>
+        <v>933</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>806</v>
@@ -16478,10 +16477,10 @@
         <v>597</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>806</v>
@@ -16495,10 +16494,10 @@
         <v>597</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D675" s="3" t="s">
         <v>806</v>
@@ -16509,13 +16508,13 @@
     </row>
     <row r="676" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="8" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>936</v>
+        <v>641</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>937</v>
+        <v>642</v>
       </c>
       <c r="D676" s="3" t="s">
         <v>806</v>
@@ -16529,10 +16528,10 @@
         <v>640</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D677" s="3" t="s">
         <v>806</v>
@@ -16546,10 +16545,10 @@
         <v>640</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D678" s="3" t="s">
         <v>806</v>
@@ -16563,10 +16562,10 @@
         <v>640</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D679" s="3" t="s">
         <v>806</v>
@@ -16580,10 +16579,10 @@
         <v>640</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>647</v>
+        <v>938</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>648</v>
+        <v>939</v>
       </c>
       <c r="D680" s="3" t="s">
         <v>806</v>
@@ -16594,16 +16593,16 @@
     </row>
     <row r="681" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="8" t="s">
-        <v>640</v>
+        <v>134</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E681" s="6" t="s">
         <v>1427</v>
@@ -16614,13 +16613,13 @@
         <v>134</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E682" s="6" t="s">
         <v>1427</v>
@@ -16628,16 +16627,16 @@
     </row>
     <row r="683" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="8" t="s">
-        <v>134</v>
+        <v>944</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>806</v>
+        <v>947</v>
       </c>
       <c r="E683" s="6" t="s">
         <v>1427</v>
@@ -16648,13 +16647,13 @@
         <v>944</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>947</v>
+        <v>806</v>
       </c>
       <c r="E684" s="6" t="s">
         <v>1427</v>
@@ -16665,10 +16664,10 @@
         <v>944</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D685" s="3" t="s">
         <v>806</v>
@@ -16679,13 +16678,13 @@
     </row>
     <row r="686" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="8" t="s">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>950</v>
+        <v>619</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>951</v>
+        <v>620</v>
       </c>
       <c r="D686" s="3" t="s">
         <v>806</v>
@@ -16699,10 +16698,10 @@
         <v>616</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D687" s="3" t="s">
         <v>806</v>
@@ -16716,10 +16715,10 @@
         <v>616</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D688" s="3" t="s">
         <v>806</v>
@@ -16733,10 +16732,10 @@
         <v>616</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D689" s="3" t="s">
         <v>806</v>
@@ -16750,10 +16749,10 @@
         <v>616</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D690" s="3" t="s">
         <v>806</v>
@@ -16767,10 +16766,10 @@
         <v>616</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>627</v>
+        <v>952</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>628</v>
+        <v>953</v>
       </c>
       <c r="D691" s="3" t="s">
         <v>806</v>
@@ -16781,13 +16780,13 @@
     </row>
     <row r="692" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="8" t="s">
-        <v>616</v>
+        <v>954</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D692" s="3" t="s">
         <v>806</v>
@@ -16801,10 +16800,10 @@
         <v>954</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D693" s="3" t="s">
         <v>806</v>
@@ -16818,10 +16817,10 @@
         <v>954</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D694" s="3" t="s">
         <v>806</v>
@@ -16835,13 +16834,13 @@
         <v>954</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E695" s="6" t="s">
         <v>1427</v>
@@ -16852,13 +16851,13 @@
         <v>954</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E696" s="6" t="s">
         <v>1427</v>
@@ -16869,10 +16868,10 @@
         <v>954</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D697" s="3" t="s">
         <v>806</v>
@@ -16883,13 +16882,13 @@
     </row>
     <row r="698" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="8" t="s">
-        <v>954</v>
+        <v>126</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>965</v>
+        <v>258</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>966</v>
+        <v>259</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>806</v>
@@ -16903,10 +16902,10 @@
         <v>126</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D699" s="3" t="s">
         <v>806</v>
@@ -16920,10 +16919,10 @@
         <v>126</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D700" s="3" t="s">
         <v>806</v>
@@ -16937,10 +16936,10 @@
         <v>126</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>262</v>
+        <v>967</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>263</v>
+        <v>968</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>806</v>
@@ -16951,13 +16950,13 @@
     </row>
     <row r="702" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="8" t="s">
-        <v>126</v>
+        <v>608</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>967</v>
+        <v>609</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>968</v>
+        <v>610</v>
       </c>
       <c r="D702" s="3" t="s">
         <v>806</v>
@@ -16971,10 +16970,10 @@
         <v>608</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D703" s="3" t="s">
         <v>806</v>
@@ -16988,10 +16987,10 @@
         <v>608</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>612</v>
+        <v>753</v>
       </c>
       <c r="D704" s="3" t="s">
         <v>806</v>
@@ -17005,10 +17004,10 @@
         <v>608</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>752</v>
+        <v>969</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>806</v>
@@ -17022,10 +17021,10 @@
         <v>608</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>806</v>
@@ -17036,13 +17035,13 @@
     </row>
     <row r="707" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="8" t="s">
-        <v>608</v>
+        <v>765</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>971</v>
+        <v>766</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>972</v>
+        <v>767</v>
       </c>
       <c r="D707" s="3" t="s">
         <v>806</v>
@@ -17056,10 +17055,10 @@
         <v>765</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>766</v>
+        <v>973</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>767</v>
+        <v>974</v>
       </c>
       <c r="D708" s="3" t="s">
         <v>806</v>
@@ -17070,13 +17069,13 @@
     </row>
     <row r="709" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>973</v>
+        <v>744</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>974</v>
+        <v>745</v>
       </c>
       <c r="D709" s="3" t="s">
         <v>806</v>
@@ -17087,13 +17086,13 @@
     </row>
     <row r="710" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="8" t="s">
-        <v>743</v>
+        <v>613</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>745</v>
+        <v>615</v>
       </c>
       <c r="D710" s="3" t="s">
         <v>806</v>
@@ -17104,13 +17103,13 @@
     </row>
     <row r="711" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="8" t="s">
-        <v>613</v>
+        <v>975</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>614</v>
+        <v>976</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>615</v>
+        <v>977</v>
       </c>
       <c r="D711" s="3" t="s">
         <v>806</v>
@@ -17124,10 +17123,10 @@
         <v>975</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D712" s="3" t="s">
         <v>806</v>
@@ -17138,13 +17137,13 @@
     </row>
     <row r="713" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="8" t="s">
-        <v>975</v>
+        <v>154</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>978</v>
+        <v>155</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>979</v>
+        <v>156</v>
       </c>
       <c r="D713" s="3" t="s">
         <v>806</v>
@@ -17158,10 +17157,10 @@
         <v>154</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D714" s="3" t="s">
         <v>806</v>
@@ -17175,10 +17174,10 @@
         <v>154</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>806</v>
@@ -17192,10 +17191,10 @@
         <v>154</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D716" s="3" t="s">
         <v>806</v>
@@ -17209,10 +17208,10 @@
         <v>154</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D717" s="3" t="s">
         <v>806</v>
@@ -17226,10 +17225,10 @@
         <v>154</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>163</v>
+        <v>768</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>164</v>
+        <v>769</v>
       </c>
       <c r="D718" s="3" t="s">
         <v>806</v>
@@ -17243,10 +17242,7 @@
         <v>154</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="C719" s="7" t="s">
-        <v>769</v>
+        <v>165</v>
       </c>
       <c r="D719" s="3" t="s">
         <v>806</v>
@@ -17260,7 +17256,10 @@
         <v>154</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>165</v>
+        <v>531</v>
+      </c>
+      <c r="C720" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="D720" s="3" t="s">
         <v>806</v>
@@ -17274,10 +17273,10 @@
         <v>154</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>531</v>
+        <v>166</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
       <c r="D721" s="3" t="s">
         <v>806</v>
@@ -17291,10 +17290,10 @@
         <v>154</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>166</v>
+        <v>533</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>167</v>
+        <v>534</v>
       </c>
       <c r="D722" s="3" t="s">
         <v>806</v>
@@ -17308,10 +17307,10 @@
         <v>154</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D723" s="3" t="s">
         <v>806</v>
@@ -17325,10 +17324,10 @@
         <v>154</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>535</v>
+        <v>168</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="D724" s="3" t="s">
         <v>806</v>
@@ -17342,10 +17341,10 @@
         <v>154</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D725" s="3" t="s">
         <v>806</v>
@@ -17359,10 +17358,10 @@
         <v>154</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D726" s="3" t="s">
         <v>806</v>
@@ -17376,10 +17375,10 @@
         <v>154</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D727" s="3" t="s">
         <v>806</v>
@@ -17393,10 +17392,10 @@
         <v>154</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>806</v>
@@ -17410,10 +17409,10 @@
         <v>154</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D729" s="3" t="s">
         <v>806</v>
@@ -17427,10 +17426,10 @@
         <v>154</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D730" s="3" t="s">
         <v>806</v>
@@ -17444,10 +17443,10 @@
         <v>154</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D731" s="3" t="s">
         <v>806</v>
@@ -17461,10 +17460,10 @@
         <v>154</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D732" s="3" t="s">
         <v>806</v>
@@ -17478,10 +17477,10 @@
         <v>154</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>806</v>
@@ -17495,10 +17494,10 @@
         <v>154</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>806</v>
@@ -17512,10 +17511,10 @@
         <v>154</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>806</v>
@@ -17529,10 +17528,10 @@
         <v>154</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>806</v>
@@ -17546,10 +17545,10 @@
         <v>154</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>192</v>
+        <v>980</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>193</v>
+        <v>981</v>
       </c>
       <c r="D737" s="3" t="s">
         <v>806</v>
@@ -17563,13 +17562,13 @@
         <v>154</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E738" s="6" t="s">
         <v>1427</v>
@@ -17580,10 +17579,10 @@
         <v>154</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D739" s="3" t="s">
         <v>392</v>
@@ -17594,16 +17593,16 @@
     </row>
     <row r="740" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="8" t="s">
-        <v>154</v>
+        <v>572</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>984</v>
+        <v>573</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>985</v>
+        <v>574</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E740" s="6" t="s">
         <v>1427</v>
@@ -17614,10 +17613,10 @@
         <v>572</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D741" s="3" t="s">
         <v>806</v>
@@ -17631,10 +17630,10 @@
         <v>572</v>
       </c>
       <c r="B742" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D742" s="3" t="s">
         <v>806</v>
@@ -17648,10 +17647,10 @@
         <v>572</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>577</v>
+        <v>784</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>578</v>
+        <v>785</v>
       </c>
       <c r="D743" s="3" t="s">
         <v>806</v>
@@ -17665,10 +17664,10 @@
         <v>572</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>784</v>
+        <v>986</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>785</v>
+        <v>987</v>
       </c>
       <c r="D744" s="3" t="s">
         <v>806</v>
@@ -17682,10 +17681,10 @@
         <v>572</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D745" s="3" t="s">
         <v>806</v>
@@ -17696,13 +17695,13 @@
     </row>
     <row r="746" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="8" t="s">
-        <v>572</v>
+        <v>990</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D746" s="3" t="s">
         <v>806</v>
@@ -17716,10 +17715,10 @@
         <v>990</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D747" s="3" t="s">
         <v>806</v>
@@ -17733,10 +17732,10 @@
         <v>990</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D748" s="3" t="s">
         <v>806</v>
@@ -17750,10 +17749,10 @@
         <v>990</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D749" s="3" t="s">
         <v>806</v>
@@ -17767,10 +17766,10 @@
         <v>990</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D750" s="3" t="s">
         <v>806</v>
@@ -17784,10 +17783,10 @@
         <v>990</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D751" s="3" t="s">
         <v>806</v>
@@ -17801,10 +17800,10 @@
         <v>990</v>
       </c>
       <c r="B752" s="8" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D752" s="3" t="s">
         <v>806</v>
@@ -17818,10 +17817,10 @@
         <v>990</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D753" s="3" t="s">
         <v>806</v>
@@ -17832,13 +17831,13 @@
     </row>
     <row r="754" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="8" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="B754" s="8" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D754" s="3" t="s">
         <v>806</v>
@@ -17852,10 +17851,10 @@
         <v>1007</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D755" s="3" t="s">
         <v>806</v>
@@ -17869,10 +17868,10 @@
         <v>1007</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D756" s="3" t="s">
         <v>806</v>
@@ -17886,10 +17885,10 @@
         <v>1007</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D757" s="3" t="s">
         <v>806</v>
@@ -17903,10 +17902,10 @@
         <v>1007</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>806</v>
@@ -17920,10 +17919,10 @@
         <v>1007</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>806</v>
@@ -17934,13 +17933,13 @@
     </row>
     <row r="760" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="8" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D760" s="3" t="s">
         <v>806</v>
@@ -17954,10 +17953,10 @@
         <v>1020</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D761" s="3" t="s">
         <v>806</v>
@@ -17968,13 +17967,13 @@
     </row>
     <row r="762" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="8" t="s">
-        <v>1020</v>
+        <v>552</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>1023</v>
+        <v>553</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>1024</v>
+        <v>554</v>
       </c>
       <c r="D762" s="3" t="s">
         <v>806</v>
@@ -17988,10 +17987,10 @@
         <v>552</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>806</v>
@@ -18005,10 +18004,10 @@
         <v>552</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D764" s="3" t="s">
         <v>806</v>
@@ -18022,10 +18021,10 @@
         <v>552</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>806</v>
@@ -18039,10 +18038,10 @@
         <v>552</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D766" s="3" t="s">
         <v>806</v>
@@ -18056,10 +18055,10 @@
         <v>552</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C767" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D767" s="3" t="s">
         <v>806</v>
@@ -18073,10 +18072,10 @@
         <v>552</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C768" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>806</v>
@@ -18090,10 +18089,10 @@
         <v>552</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D769" s="3" t="s">
         <v>806</v>
@@ -18107,10 +18106,10 @@
         <v>552</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>567</v>
+        <v>759</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>568</v>
+        <v>760</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>806</v>
@@ -18124,10 +18123,10 @@
         <v>552</v>
       </c>
       <c r="B771" s="8" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="D771" s="3" t="s">
         <v>806</v>
@@ -18141,10 +18140,10 @@
         <v>552</v>
       </c>
       <c r="B772" s="8" t="s">
-        <v>780</v>
+        <v>1025</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>781</v>
+        <v>1026</v>
       </c>
       <c r="D772" s="3" t="s">
         <v>806</v>
@@ -18155,13 +18154,13 @@
     </row>
     <row r="773" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="8" t="s">
-        <v>552</v>
+        <v>800</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>1025</v>
+        <v>209</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>1026</v>
+        <v>210</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>806</v>
@@ -18175,10 +18174,10 @@
         <v>800</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D774" s="3" t="s">
         <v>806</v>
@@ -18192,10 +18191,10 @@
         <v>800</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C775" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>806</v>
@@ -18209,10 +18208,10 @@
         <v>800</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>203</v>
+        <v>1027</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>204</v>
+        <v>1028</v>
       </c>
       <c r="D776" s="3" t="s">
         <v>806</v>
@@ -18226,10 +18225,10 @@
         <v>800</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>1027</v>
+        <v>794</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D777" s="3" t="s">
         <v>806</v>
@@ -18243,30 +18242,30 @@
         <v>800</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>794</v>
+        <v>1030</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E778" s="6" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="8" t="s">
-        <v>800</v>
+        <v>584</v>
       </c>
       <c r="B779" s="8" t="s">
-        <v>1030</v>
+        <v>750</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>1031</v>
+        <v>751</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E779" s="6" t="s">
         <v>1427</v>
@@ -18277,10 +18276,10 @@
         <v>584</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>806</v>
@@ -18294,10 +18293,10 @@
         <v>584</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>806</v>
@@ -18311,10 +18310,10 @@
         <v>584</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>806</v>
@@ -18328,10 +18327,10 @@
         <v>584</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="C783" s="7" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="D783" s="3" t="s">
         <v>806</v>
@@ -18345,10 +18344,10 @@
         <v>584</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C784" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>806</v>
@@ -18362,10 +18361,10 @@
         <v>584</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C785" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D785" s="3" t="s">
         <v>806</v>
@@ -18379,10 +18378,10 @@
         <v>584</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D786" s="3" t="s">
         <v>806</v>
@@ -18396,10 +18395,10 @@
         <v>584</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C787" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>806</v>
@@ -18413,10 +18412,10 @@
         <v>584</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="C788" s="7" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>806</v>
@@ -18430,10 +18429,10 @@
         <v>584</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>724</v>
+        <v>782</v>
       </c>
       <c r="C789" s="7" t="s">
-        <v>725</v>
+        <v>783</v>
       </c>
       <c r="D789" s="3" t="s">
         <v>806</v>
@@ -18447,10 +18446,10 @@
         <v>584</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
       <c r="C790" s="7" t="s">
-        <v>783</v>
+        <v>596</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>806</v>
@@ -18464,10 +18463,10 @@
         <v>584</v>
       </c>
       <c r="B791" s="8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C791" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D791" s="3" t="s">
         <v>806</v>
@@ -18481,13 +18480,13 @@
         <v>584</v>
       </c>
       <c r="B792" s="8" t="s">
-        <v>585</v>
+        <v>1032</v>
       </c>
       <c r="C792" s="7" t="s">
-        <v>586</v>
+        <v>1033</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E792" s="6" t="s">
         <v>1427</v>
@@ -18498,10 +18497,10 @@
         <v>584</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C793" s="7" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>392</v>
@@ -18515,13 +18514,13 @@
         <v>584</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>1034</v>
+        <v>587</v>
       </c>
       <c r="C794" s="7" t="s">
-        <v>1035</v>
+        <v>588</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E794" s="6" t="s">
         <v>1427</v>
@@ -18532,10 +18531,10 @@
         <v>584</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C795" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D795" s="3" t="s">
         <v>806</v>
@@ -18549,10 +18548,10 @@
         <v>584</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C796" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D796" s="3" t="s">
         <v>806</v>
@@ -18566,10 +18565,10 @@
         <v>584</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D797" s="3" t="s">
         <v>806</v>
@@ -18583,30 +18582,30 @@
         <v>584</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>593</v>
+        <v>1036</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>594</v>
+        <v>1037</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E798" s="6" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="8" t="s">
-        <v>584</v>
+        <v>58</v>
       </c>
       <c r="B799" s="8" t="s">
-        <v>1036</v>
+        <v>272</v>
       </c>
       <c r="C799" s="7" t="s">
-        <v>1037</v>
+        <v>273</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E799" s="6" t="s">
         <v>1427</v>
@@ -18617,10 +18616,10 @@
         <v>58</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>272</v>
+        <v>600</v>
       </c>
       <c r="C800" s="7" t="s">
-        <v>273</v>
+        <v>601</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>806</v>
@@ -18634,10 +18633,10 @@
         <v>58</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>600</v>
+        <v>1038</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>601</v>
+        <v>1039</v>
       </c>
       <c r="D801" s="3" t="s">
         <v>806</v>
@@ -18648,13 +18647,13 @@
     </row>
     <row r="802" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="8" t="s">
-        <v>58</v>
+        <v>1040</v>
       </c>
       <c r="B802" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>806</v>
@@ -18668,10 +18667,10 @@
         <v>1040</v>
       </c>
       <c r="B803" s="8" t="s">
-        <v>1041</v>
+        <v>542</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>806</v>
@@ -18685,10 +18684,10 @@
         <v>1040</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>542</v>
+        <v>1044</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D804" s="3" t="s">
         <v>806</v>
@@ -18702,10 +18701,10 @@
         <v>1040</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>806</v>
@@ -18719,10 +18718,10 @@
         <v>1040</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D806" s="3" t="s">
         <v>806</v>
@@ -18736,10 +18735,10 @@
         <v>1040</v>
       </c>
       <c r="B807" s="8" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D807" s="3" t="s">
         <v>806</v>
@@ -18753,13 +18752,13 @@
         <v>1040</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E808" s="6" t="s">
         <v>1427</v>
@@ -18767,16 +18766,16 @@
     </row>
     <row r="809" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="8" t="s">
-        <v>1040</v>
+        <v>414</v>
       </c>
       <c r="B809" s="8" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E809" s="6" t="s">
         <v>1427</v>
@@ -18787,13 +18786,13 @@
         <v>414</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E810" s="6" t="s">
         <v>1427</v>
@@ -18804,10 +18803,10 @@
         <v>414</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C811" s="7" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>392</v>
@@ -18821,10 +18820,10 @@
         <v>414</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C812" s="7" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D812" s="3" t="s">
         <v>392</v>
@@ -18838,13 +18837,13 @@
         <v>414</v>
       </c>
       <c r="B813" s="8" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C813" s="7" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E813" s="6" t="s">
         <v>1427</v>
@@ -18855,13 +18854,13 @@
         <v>414</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E814" s="6" t="s">
         <v>1427</v>
@@ -18872,10 +18871,10 @@
         <v>414</v>
       </c>
       <c r="B815" s="8" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C815" s="7" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D815" s="3" t="s">
         <v>392</v>
@@ -18889,13 +18888,13 @@
         <v>414</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C816" s="7" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E816" s="6" t="s">
         <v>1427</v>
@@ -18906,10 +18905,10 @@
         <v>414</v>
       </c>
       <c r="B817" s="8" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D817" s="3" t="s">
         <v>806</v>
@@ -18923,13 +18922,13 @@
         <v>414</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E818" s="6" t="s">
         <v>1427</v>
@@ -18940,13 +18939,13 @@
         <v>414</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E819" s="6" t="s">
         <v>1427</v>
@@ -18957,10 +18956,10 @@
         <v>414</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D820" s="3" t="s">
         <v>806</v>
@@ -18974,10 +18973,10 @@
         <v>414</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D821" s="3" t="s">
         <v>806</v>
@@ -18991,10 +18990,10 @@
         <v>414</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C822" s="7" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D822" s="3" t="s">
         <v>806</v>
@@ -19008,10 +19007,10 @@
         <v>414</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D823" s="3" t="s">
         <v>806</v>
@@ -19025,10 +19024,10 @@
         <v>414</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>806</v>
@@ -19042,10 +19041,10 @@
         <v>414</v>
       </c>
       <c r="B825" s="8" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C825" s="7" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D825" s="3" t="s">
         <v>806</v>
@@ -19059,10 +19058,10 @@
         <v>414</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C826" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D826" s="3" t="s">
         <v>806</v>
@@ -19076,10 +19075,10 @@
         <v>414</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D827" s="3" t="s">
         <v>806</v>
@@ -19093,10 +19092,10 @@
         <v>414</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>1090</v>
+        <v>425</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>1091</v>
+        <v>1346</v>
       </c>
       <c r="D828" s="3" t="s">
         <v>806</v>
@@ -19110,13 +19109,13 @@
         <v>414</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>425</v>
+        <v>1092</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>1346</v>
+        <v>1093</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E829" s="6" t="s">
         <v>1427</v>
@@ -19127,13 +19126,13 @@
         <v>414</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>1092</v>
+        <v>423</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>1093</v>
+        <v>424</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E830" s="6" t="s">
         <v>1427</v>
@@ -19144,10 +19143,10 @@
         <v>414</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>423</v>
+        <v>1094</v>
       </c>
       <c r="C831" s="7" t="s">
-        <v>424</v>
+        <v>1095</v>
       </c>
       <c r="D831" s="3" t="s">
         <v>806</v>
@@ -19161,10 +19160,10 @@
         <v>414</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C832" s="7" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D832" s="3" t="s">
         <v>806</v>
@@ -19178,10 +19177,10 @@
         <v>414</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C833" s="7" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D833" s="3" t="s">
         <v>806</v>
@@ -19195,13 +19194,13 @@
         <v>414</v>
       </c>
       <c r="B834" s="8" t="s">
-        <v>1098</v>
+        <v>421</v>
       </c>
       <c r="C834" s="7" t="s">
-        <v>1099</v>
+        <v>422</v>
       </c>
       <c r="D834" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E834" s="6" t="s">
         <v>1427</v>
@@ -19212,10 +19211,10 @@
         <v>414</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D835" s="3" t="s">
         <v>392</v>
@@ -19229,10 +19228,10 @@
         <v>414</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D836" s="3" t="s">
         <v>392</v>
@@ -19246,10 +19245,10 @@
         <v>414</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>417</v>
+        <v>1100</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>418</v>
+        <v>1101</v>
       </c>
       <c r="D837" s="3" t="s">
         <v>392</v>
@@ -19263,10 +19262,10 @@
         <v>414</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D838" s="3" t="s">
         <v>392</v>
@@ -19280,13 +19279,13 @@
         <v>414</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E839" s="6" t="s">
         <v>1427</v>
@@ -19297,13 +19296,13 @@
         <v>414</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E840" s="6" t="s">
         <v>1427</v>
@@ -19314,10 +19313,10 @@
         <v>414</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D841" s="3" t="s">
         <v>392</v>
@@ -19331,10 +19330,10 @@
         <v>414</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D842" s="3" t="s">
         <v>392</v>
@@ -19348,13 +19347,13 @@
         <v>414</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E843" s="6" t="s">
         <v>1427</v>
@@ -19365,13 +19364,13 @@
         <v>414</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E844" s="6" t="s">
         <v>1427</v>
@@ -19382,10 +19381,10 @@
         <v>414</v>
       </c>
       <c r="B845" s="8" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D845" s="3" t="s">
         <v>392</v>
@@ -19399,10 +19398,10 @@
         <v>414</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D846" s="3" t="s">
         <v>392</v>
@@ -19416,10 +19415,10 @@
         <v>414</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>392</v>
@@ -19433,10 +19432,10 @@
         <v>414</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D848" s="3" t="s">
         <v>392</v>
@@ -19450,13 +19449,13 @@
         <v>414</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E849" s="6" t="s">
         <v>1427</v>
@@ -19467,13 +19466,13 @@
         <v>414</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E850" s="6" t="s">
         <v>1427</v>
@@ -19484,10 +19483,10 @@
         <v>414</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>1126</v>
+        <v>450</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>1127</v>
+        <v>451</v>
       </c>
       <c r="D851" s="3" t="s">
         <v>392</v>
@@ -19501,13 +19500,13 @@
         <v>414</v>
       </c>
       <c r="B852" s="8" t="s">
-        <v>450</v>
+        <v>1128</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>451</v>
+        <v>1129</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E852" s="6" t="s">
         <v>1427</v>
@@ -19518,13 +19517,13 @@
         <v>414</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E853" s="6" t="s">
         <v>1427</v>
@@ -19535,13 +19534,13 @@
         <v>414</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E854" s="6" t="s">
         <v>1427</v>
@@ -19552,13 +19551,13 @@
         <v>414</v>
       </c>
       <c r="B855" s="8" t="s">
-        <v>1132</v>
+        <v>488</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>1133</v>
+        <v>489</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E855" s="6" t="s">
         <v>1427</v>
@@ -19569,10 +19568,10 @@
         <v>414</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>488</v>
+        <v>1134</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>489</v>
+        <v>1135</v>
       </c>
       <c r="D856" s="3" t="s">
         <v>392</v>
@@ -19586,10 +19585,10 @@
         <v>414</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D857" s="3" t="s">
         <v>392</v>
@@ -19603,10 +19602,10 @@
         <v>414</v>
       </c>
       <c r="B858" s="8" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>392</v>
@@ -19620,10 +19619,10 @@
         <v>414</v>
       </c>
       <c r="B859" s="8" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>392</v>
@@ -19637,10 +19636,10 @@
         <v>414</v>
       </c>
       <c r="B860" s="8" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>392</v>
@@ -19654,10 +19653,10 @@
         <v>414</v>
       </c>
       <c r="B861" s="8" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D861" s="3" t="s">
         <v>392</v>
@@ -19671,10 +19670,10 @@
         <v>414</v>
       </c>
       <c r="B862" s="8" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D862" s="3" t="s">
         <v>392</v>
@@ -19688,13 +19687,13 @@
         <v>414</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E863" s="6" t="s">
         <v>1427</v>
@@ -19705,10 +19704,10 @@
         <v>414</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D864" s="3" t="s">
         <v>806</v>
@@ -19722,10 +19721,10 @@
         <v>414</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D865" s="3" t="s">
         <v>806</v>
@@ -19739,10 +19738,10 @@
         <v>414</v>
       </c>
       <c r="B866" s="8" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D866" s="3" t="s">
         <v>806</v>
@@ -19756,13 +19755,13 @@
         <v>414</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E867" s="6" t="s">
         <v>1427</v>
@@ -19773,10 +19772,10 @@
         <v>414</v>
       </c>
       <c r="B868" s="8" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>1157</v>
+        <v>1358</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>392</v>
@@ -19790,10 +19789,10 @@
         <v>414</v>
       </c>
       <c r="B869" s="8" t="s">
-        <v>1158</v>
+        <v>470</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>1358</v>
+        <v>471</v>
       </c>
       <c r="D869" s="3" t="s">
         <v>392</v>
@@ -19807,13 +19806,13 @@
         <v>414</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>470</v>
+        <v>1159</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>471</v>
+        <v>1160</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E870" s="6" t="s">
         <v>1427</v>
@@ -19824,10 +19823,10 @@
         <v>414</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>1159</v>
+        <v>430</v>
       </c>
       <c r="C871" s="7" t="s">
-        <v>1160</v>
+        <v>431</v>
       </c>
       <c r="D871" s="3" t="s">
         <v>806</v>
@@ -19841,10 +19840,10 @@
         <v>414</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>430</v>
+        <v>1161</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>431</v>
+        <v>1162</v>
       </c>
       <c r="D872" s="3" t="s">
         <v>806</v>
@@ -19858,13 +19857,13 @@
         <v>414</v>
       </c>
       <c r="B873" s="8" t="s">
-        <v>1161</v>
+        <v>428</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>1162</v>
+        <v>429</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E873" s="6" t="s">
         <v>1427</v>
@@ -19875,10 +19874,10 @@
         <v>414</v>
       </c>
       <c r="B874" s="8" t="s">
-        <v>428</v>
+        <v>1163</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>429</v>
+        <v>1164</v>
       </c>
       <c r="D874" s="3" t="s">
         <v>392</v>
@@ -19892,10 +19891,10 @@
         <v>414</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>1163</v>
+        <v>426</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>1164</v>
+        <v>427</v>
       </c>
       <c r="D875" s="3" t="s">
         <v>392</v>
@@ -19906,16 +19905,16 @@
     </row>
     <row r="876" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="8" t="s">
-        <v>414</v>
+        <v>1165</v>
       </c>
       <c r="B876" s="8" t="s">
-        <v>426</v>
+        <v>1166</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>427</v>
+        <v>1167</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E876" s="6" t="s">
         <v>1427</v>
@@ -19926,10 +19925,10 @@
         <v>1165</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D877" s="3" t="s">
         <v>806</v>
@@ -19943,10 +19942,10 @@
         <v>1165</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D878" s="3" t="s">
         <v>806</v>
@@ -19960,10 +19959,10 @@
         <v>1165</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D879" s="3" t="s">
         <v>806</v>
@@ -19977,10 +19976,10 @@
         <v>1165</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D880" s="3" t="s">
         <v>806</v>
@@ -19994,10 +19993,10 @@
         <v>1165</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D881" s="3" t="s">
         <v>806</v>
@@ -20011,10 +20010,10 @@
         <v>1165</v>
       </c>
       <c r="B882" s="8" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D882" s="3" t="s">
         <v>806</v>
@@ -20028,13 +20027,13 @@
         <v>1165</v>
       </c>
       <c r="B883" s="8" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D883" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E883" s="6" t="s">
         <v>1427</v>
@@ -20045,10 +20044,10 @@
         <v>1165</v>
       </c>
       <c r="B884" s="8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D884" s="3" t="s">
         <v>392</v>
@@ -20062,13 +20061,13 @@
         <v>1165</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E885" s="6" t="s">
         <v>1427</v>
@@ -20079,10 +20078,10 @@
         <v>1165</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D886" s="3" t="s">
         <v>806</v>
@@ -20096,10 +20095,10 @@
         <v>1165</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D887" s="3" t="s">
         <v>806</v>
@@ -20113,13 +20112,13 @@
         <v>1165</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E888" s="6" t="s">
         <v>1427</v>
@@ -20127,16 +20126,16 @@
     </row>
     <row r="889" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="8" t="s">
-        <v>1165</v>
+        <v>1192</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E889" s="6" t="s">
         <v>1427</v>
@@ -20147,10 +20146,10 @@
         <v>1192</v>
       </c>
       <c r="B890" s="8" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D890" s="3" t="s">
         <v>806</v>
@@ -20164,10 +20163,10 @@
         <v>1192</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C891" s="7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D891" s="3" t="s">
         <v>806</v>
@@ -20181,10 +20180,10 @@
         <v>1192</v>
       </c>
       <c r="B892" s="8" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D892" s="3" t="s">
         <v>806</v>
@@ -20198,10 +20197,10 @@
         <v>1192</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D893" s="3" t="s">
         <v>806</v>
@@ -20215,10 +20214,10 @@
         <v>1192</v>
       </c>
       <c r="B894" s="8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D894" s="3" t="s">
         <v>806</v>
@@ -20232,10 +20231,10 @@
         <v>1192</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D895" s="3" t="s">
         <v>806</v>
@@ -20249,10 +20248,10 @@
         <v>1192</v>
       </c>
       <c r="B896" s="8" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D896" s="3" t="s">
         <v>806</v>
@@ -20266,13 +20265,13 @@
         <v>1192</v>
       </c>
       <c r="B897" s="8" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C897" s="7" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E897" s="6" t="s">
         <v>1427</v>
@@ -20283,10 +20282,10 @@
         <v>1192</v>
       </c>
       <c r="B898" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C898" s="7" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D898" s="3" t="s">
         <v>392</v>
@@ -20300,10 +20299,10 @@
         <v>1192</v>
       </c>
       <c r="B899" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D899" s="3" t="s">
         <v>392</v>
@@ -20317,10 +20316,10 @@
         <v>1192</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D900" s="3" t="s">
         <v>392</v>
@@ -20331,13 +20330,13 @@
     </row>
     <row r="901" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="8" t="s">
-        <v>1192</v>
+        <v>414</v>
       </c>
       <c r="B901" s="8" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D901" s="3" t="s">
         <v>392</v>
@@ -20351,13 +20350,13 @@
         <v>414</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E902" s="6" t="s">
         <v>1427</v>
@@ -20365,16 +20364,16 @@
     </row>
     <row r="903" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="8" t="s">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="B903" s="8" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C903" s="7" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E903" s="6" t="s">
         <v>1427</v>
@@ -20382,16 +20381,16 @@
     </row>
     <row r="904" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="8" t="s">
-        <v>137</v>
+        <v>840</v>
       </c>
       <c r="B904" s="8" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C904" s="7" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E904" s="6" t="s">
         <v>1427</v>
@@ -20399,13 +20398,13 @@
     </row>
     <row r="905" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="8" t="s">
-        <v>840</v>
+        <v>414</v>
       </c>
       <c r="B905" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C905" s="7" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D905" s="3" t="s">
         <v>806</v>
@@ -20419,13 +20418,13 @@
         <v>414</v>
       </c>
       <c r="B906" s="8" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C906" s="7" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E906" s="6" t="s">
         <v>1427</v>
@@ -20433,16 +20432,16 @@
     </row>
     <row r="907" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="8" t="s">
-        <v>414</v>
+        <v>1020</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C907" s="7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>392</v>
+        <v>1231</v>
       </c>
       <c r="E907" s="6" t="s">
         <v>1427</v>
@@ -20450,16 +20449,16 @@
     </row>
     <row r="908" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="8" t="s">
-        <v>1020</v>
+        <v>346</v>
       </c>
       <c r="B908" s="8" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C908" s="7" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1231</v>
+        <v>859</v>
       </c>
       <c r="E908" s="6" t="s">
         <v>1427</v>
@@ -20470,10 +20469,10 @@
         <v>346</v>
       </c>
       <c r="B909" s="8" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C909" s="7" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D909" s="3" t="s">
         <v>859</v>
@@ -20487,13 +20486,13 @@
         <v>346</v>
       </c>
       <c r="B910" s="8" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C910" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D910" s="3" t="s">
-        <v>859</v>
+        <v>1237</v>
+      </c>
+      <c r="D910" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="E910" s="6" t="s">
         <v>1427</v>
@@ -20501,16 +20500,16 @@
     </row>
     <row r="911" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="8" t="s">
-        <v>346</v>
+        <v>990</v>
       </c>
       <c r="B911" s="8" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C911" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D911" s="9" t="s">
-        <v>392</v>
+        <v>1239</v>
+      </c>
+      <c r="D911" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E911" s="6" t="s">
         <v>1427</v>
@@ -20518,13 +20517,13 @@
     </row>
     <row r="912" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="8" t="s">
-        <v>990</v>
+        <v>414</v>
       </c>
       <c r="B912" s="8" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C912" s="7" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D912" s="3" t="s">
         <v>806</v>
@@ -20535,16 +20534,16 @@
     </row>
     <row r="913" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="8" t="s">
-        <v>414</v>
+        <v>134</v>
       </c>
       <c r="B913" s="8" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C913" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E913" s="6" t="s">
         <v>1427</v>
@@ -20552,13 +20551,13 @@
     </row>
     <row r="914" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="8" t="s">
-        <v>134</v>
+        <v>1192</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C914" s="7" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D914" s="3" t="s">
         <v>392</v>
@@ -20569,15 +20568,15 @@
     </row>
     <row r="915" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="8" t="s">
-        <v>1192</v>
+        <v>346</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C915" s="7" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D915" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D915" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E915" s="6" t="s">
@@ -20586,33 +20585,33 @@
     </row>
     <row r="916" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="8" t="s">
-        <v>346</v>
+        <v>1248</v>
       </c>
       <c r="B916" s="8" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C916" s="7" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D916" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E916" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B917" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C917" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D917" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="E916" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="917" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B917" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C917" s="7" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D917" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="E917" s="6" t="s">
         <v>1427</v>
@@ -20623,10 +20622,10 @@
         <v>584</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C918" s="7" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D918" s="3" t="s">
         <v>392</v>
@@ -20635,15 +20634,15 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="8" t="s">
-        <v>584</v>
+        <v>1165</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C919" s="7" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>392</v>
@@ -20654,13 +20653,13 @@
     </row>
     <row r="920" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="8" t="s">
-        <v>1165</v>
+        <v>1040</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C920" s="7" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D920" s="3" t="s">
         <v>392</v>
@@ -20671,16 +20670,16 @@
     </row>
     <row r="921" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B921" s="8" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C921" s="7" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E921" s="6" t="s">
         <v>1427</v>
@@ -20688,16 +20687,16 @@
     </row>
     <row r="922" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="8" t="s">
-        <v>990</v>
+        <v>414</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>1259</v>
+        <v>506</v>
       </c>
       <c r="C922" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D922" s="3" t="s">
-        <v>806</v>
+        <v>507</v>
+      </c>
+      <c r="D922" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="E922" s="6" t="s">
         <v>1427</v>
@@ -20708,13 +20707,13 @@
         <v>414</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>506</v>
+        <v>1261</v>
       </c>
       <c r="C923" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D923" s="9" t="s">
-        <v>859</v>
+        <v>1262</v>
+      </c>
+      <c r="D923" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="E923" s="6" t="s">
         <v>1427</v>
@@ -20722,13 +20721,13 @@
     </row>
     <row r="924" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="8" t="s">
-        <v>414</v>
+        <v>194</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C924" s="7" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D924" s="3" t="s">
         <v>392</v>
@@ -20739,13 +20738,13 @@
     </row>
     <row r="925" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="8" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B925" s="8" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C925" s="7" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D925" s="3" t="s">
         <v>392</v>
@@ -20756,13 +20755,13 @@
     </row>
     <row r="926" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="8" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C926" s="7" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D926" s="3" t="s">
         <v>392</v>
@@ -20773,16 +20772,16 @@
     </row>
     <row r="927" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="8" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C927" s="7" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E927" s="6" t="s">
         <v>1427</v>
@@ -20790,13 +20789,13 @@
     </row>
     <row r="928" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="8" t="s">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="B928" s="8" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C928" s="7" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D928" s="3" t="s">
         <v>806</v>
@@ -20810,13 +20809,13 @@
         <v>414</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C929" s="7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E929" s="6" t="s">
         <v>1427</v>
@@ -20824,16 +20823,16 @@
     </row>
     <row r="930" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="8" t="s">
-        <v>414</v>
+        <v>990</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C930" s="7" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D930" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E930" s="6" t="s">
         <v>1427</v>
@@ -20841,13 +20840,13 @@
     </row>
     <row r="931" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="8" t="s">
-        <v>990</v>
+        <v>822</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C931" s="7" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D931" s="3" t="s">
         <v>806</v>
@@ -20858,16 +20857,16 @@
     </row>
     <row r="932" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="8" t="s">
-        <v>822</v>
+        <v>954</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C932" s="7" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E932" s="6" t="s">
         <v>1427</v>
@@ -20875,13 +20874,13 @@
     </row>
     <row r="933" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="8" t="s">
-        <v>954</v>
+        <v>137</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C933" s="7" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D933" s="3" t="s">
         <v>392</v>
@@ -20892,16 +20891,16 @@
     </row>
     <row r="934" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="8" t="s">
-        <v>137</v>
+        <v>1040</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C934" s="7" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E934" s="6" t="s">
         <v>1427</v>
@@ -20909,13 +20908,13 @@
     </row>
     <row r="935" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C935" s="7" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="D935" s="3" t="s">
         <v>806</v>
@@ -20926,16 +20925,16 @@
     </row>
     <row r="936" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="8" t="s">
-        <v>990</v>
+        <v>194</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C936" s="7" t="s">
-        <v>1359</v>
+        <v>1287</v>
       </c>
       <c r="D936" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E936" s="6" t="s">
         <v>1427</v>
@@ -20943,16 +20942,16 @@
     </row>
     <row r="937" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="8" t="s">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C937" s="7" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E937" s="6" t="s">
         <v>1427</v>
@@ -20960,13 +20959,13 @@
     </row>
     <row r="938" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="8" t="s">
-        <v>414</v>
+        <v>1165</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C938" s="7" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D938" s="3" t="s">
         <v>806</v>
@@ -20977,13 +20976,13 @@
     </row>
     <row r="939" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="8" t="s">
-        <v>1165</v>
+        <v>1007</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C939" s="7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D939" s="3" t="s">
         <v>806</v>
@@ -20994,16 +20993,16 @@
     </row>
     <row r="940" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="8" t="s">
-        <v>1007</v>
+        <v>1165</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C940" s="7" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E940" s="6" t="s">
         <v>1427</v>
@@ -21014,12 +21013,12 @@
         <v>1165</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C941" s="7" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D941" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D941" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E941" s="6" t="s">
@@ -21028,16 +21027,16 @@
     </row>
     <row r="942" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="8" t="s">
-        <v>1165</v>
+        <v>990</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C942" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D942" s="9" t="s">
-        <v>392</v>
+        <v>1299</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E942" s="6" t="s">
         <v>1427</v>
@@ -21045,13 +21044,13 @@
     </row>
     <row r="943" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="8" t="s">
-        <v>990</v>
+        <v>253</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D943" s="3" t="s">
         <v>806</v>
@@ -21062,13 +21061,13 @@
     </row>
     <row r="944" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="8" t="s">
-        <v>253</v>
+        <v>990</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C944" s="7" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D944" s="3" t="s">
         <v>806</v>
@@ -21079,13 +21078,13 @@
     </row>
     <row r="945" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="8" t="s">
-        <v>990</v>
+        <v>126</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C945" s="7" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D945" s="3" t="s">
         <v>806</v>
@@ -21096,16 +21095,16 @@
     </row>
     <row r="946" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="8" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C946" s="7" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E946" s="6" t="s">
         <v>1427</v>
@@ -21113,13 +21112,13 @@
     </row>
     <row r="947" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="8" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C947" s="7" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D947" s="3" t="s">
         <v>392</v>
@@ -21130,13 +21129,13 @@
     </row>
     <row r="948" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="8" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B948" s="8" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C948" s="7" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D948" s="3" t="s">
         <v>392</v>
@@ -21147,13 +21146,13 @@
     </row>
     <row r="949" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C949" s="7" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D949" s="3" t="s">
         <v>392</v>
@@ -21164,13 +21163,13 @@
     </row>
     <row r="950" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="8" t="s">
-        <v>137</v>
+        <v>1040</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C950" s="7" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D950" s="3" t="s">
         <v>392</v>
@@ -21181,16 +21180,16 @@
     </row>
     <row r="951" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="8" t="s">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>1314</v>
+        <v>514</v>
       </c>
       <c r="C951" s="7" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E951" s="6" t="s">
         <v>1427</v>
@@ -21201,13 +21200,13 @@
         <v>840</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>514</v>
+        <v>1317</v>
       </c>
       <c r="C952" s="7" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E952" s="6" t="s">
         <v>1427</v>
@@ -21218,10 +21217,10 @@
         <v>840</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C953" s="7" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D953" s="3" t="s">
         <v>392</v>
@@ -21232,13 +21231,13 @@
     </row>
     <row r="954" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="8" t="s">
-        <v>840</v>
+        <v>414</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C954" s="7" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D954" s="3" t="s">
         <v>392</v>
@@ -21252,10 +21251,10 @@
         <v>414</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C955" s="7" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D955" s="3" t="s">
         <v>392</v>
@@ -21266,16 +21265,16 @@
     </row>
     <row r="956" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="8" t="s">
-        <v>414</v>
+        <v>822</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C956" s="7" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E956" s="6" t="s">
         <v>1427</v>
@@ -21283,16 +21282,16 @@
     </row>
     <row r="957" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="8" t="s">
-        <v>822</v>
+        <v>1020</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C957" s="7" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>806</v>
+        <v>1231</v>
       </c>
       <c r="E957" s="6" t="s">
         <v>1427</v>
@@ -21300,16 +21299,16 @@
     </row>
     <row r="958" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="8" t="s">
-        <v>1020</v>
+        <v>414</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C958" s="7" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>1231</v>
+        <v>392</v>
       </c>
       <c r="E958" s="6" t="s">
         <v>1427</v>
@@ -21320,10 +21319,10 @@
         <v>414</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C959" s="7" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D959" s="3" t="s">
         <v>392</v>
@@ -21337,10 +21336,10 @@
         <v>414</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C960" s="7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D960" s="3" t="s">
         <v>392</v>
@@ -21354,10 +21353,10 @@
         <v>414</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C961" s="7" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D961" s="3" t="s">
         <v>392</v>
@@ -21368,16 +21367,16 @@
     </row>
     <row r="962" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="8" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>1335</v>
+        <v>1361</v>
       </c>
       <c r="C962" s="7" t="s">
-        <v>1336</v>
+        <v>1403</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>392</v>
+        <v>1362</v>
       </c>
       <c r="E962" s="6" t="s">
         <v>1427</v>
@@ -21385,16 +21384,16 @@
     </row>
     <row r="963" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="8" t="s">
-        <v>597</v>
+        <v>346</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C963" s="7" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1362</v>
+        <v>392</v>
       </c>
       <c r="E963" s="6" t="s">
         <v>1427</v>
@@ -21405,10 +21404,10 @@
         <v>346</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C964" s="7" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D964" s="3" t="s">
         <v>392</v>
@@ -21422,10 +21421,10 @@
         <v>346</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C965" s="7" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D965" s="3" t="s">
         <v>392</v>
@@ -21436,13 +21435,13 @@
     </row>
     <row r="966" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="8" t="s">
-        <v>346</v>
+        <v>640</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C966" s="7" t="s">
-        <v>1424</v>
+        <v>1404</v>
       </c>
       <c r="D966" s="3" t="s">
         <v>392</v>
@@ -21453,16 +21452,16 @@
     </row>
     <row r="967" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="8" t="s">
-        <v>640</v>
+        <v>1040</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E967" s="6" t="s">
         <v>1427</v>
@@ -21470,16 +21469,16 @@
     </row>
     <row r="968" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="8" t="s">
-        <v>1040</v>
+        <v>346</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C968" s="7" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E968" s="6" t="s">
         <v>1427</v>
@@ -21487,13 +21486,13 @@
     </row>
     <row r="969" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="8" t="s">
-        <v>346</v>
+        <v>1192</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C969" s="7" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="D969" s="3" t="s">
         <v>392</v>
@@ -21504,16 +21503,16 @@
     </row>
     <row r="970" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="8" t="s">
-        <v>1192</v>
+        <v>1007</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C970" s="7" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>392</v>
+        <v>1370</v>
       </c>
       <c r="E970" s="6" t="s">
         <v>1427</v>
@@ -21521,16 +21520,16 @@
     </row>
     <row r="971" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="8" t="s">
-        <v>1007</v>
+        <v>1192</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C971" s="7" t="s">
-        <v>1411</v>
+        <v>1421</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1370</v>
+        <v>392</v>
       </c>
       <c r="E971" s="6" t="s">
         <v>1427</v>
@@ -21538,16 +21537,16 @@
     </row>
     <row r="972" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="8" t="s">
-        <v>1192</v>
+        <v>1040</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C972" s="7" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E972" s="6" t="s">
         <v>1427</v>
@@ -21555,16 +21554,16 @@
     </row>
     <row r="973" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="8" t="s">
-        <v>1040</v>
+        <v>26</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C973" s="7" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E973" s="6" t="s">
         <v>1427</v>
@@ -21572,13 +21571,13 @@
     </row>
     <row r="974" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="8" t="s">
-        <v>26</v>
+        <v>1040</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C974" s="7" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="D974" s="3" t="s">
         <v>392</v>
@@ -21589,16 +21588,16 @@
     </row>
     <row r="975" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C975" s="7" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E975" s="6" t="s">
         <v>1427</v>
@@ -21606,16 +21605,16 @@
     </row>
     <row r="976" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="8" t="s">
-        <v>990</v>
+        <v>954</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C976" s="7" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>806</v>
+        <v>1377</v>
       </c>
       <c r="E976" s="6" t="s">
         <v>1427</v>
@@ -21623,16 +21622,16 @@
     </row>
     <row r="977" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="8" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C977" s="7" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>1377</v>
+        <v>806</v>
       </c>
       <c r="E977" s="6" t="s">
         <v>1427</v>
@@ -21640,13 +21639,13 @@
     </row>
     <row r="978" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="8" t="s">
-        <v>1248</v>
+        <v>552</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C978" s="7" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="D978" s="3" t="s">
         <v>806</v>
@@ -21657,13 +21656,13 @@
     </row>
     <row r="979" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="8" t="s">
-        <v>552</v>
+        <v>1248</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C979" s="7" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="D979" s="3" t="s">
         <v>806</v>
@@ -21674,16 +21673,16 @@
     </row>
     <row r="980" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="8" t="s">
-        <v>1248</v>
+        <v>1382</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C980" s="7" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="D980" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E980" s="6" t="s">
         <v>1427</v>
@@ -21691,13 +21690,13 @@
     </row>
     <row r="981" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="8" t="s">
-        <v>1382</v>
+        <v>137</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C981" s="7" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D981" s="3" t="s">
         <v>392</v>
@@ -21708,16 +21707,16 @@
     </row>
     <row r="982" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="8" t="s">
-        <v>137</v>
+        <v>990</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C982" s="7" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E982" s="6" t="s">
         <v>1427</v>
@@ -21725,16 +21724,16 @@
     </row>
     <row r="983" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="8" t="s">
-        <v>990</v>
+        <v>1165</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C983" s="7" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E983" s="6" t="s">
         <v>1427</v>
@@ -21745,10 +21744,10 @@
         <v>1165</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C984" s="7" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D984" s="3" t="s">
         <v>392</v>
@@ -21759,13 +21758,13 @@
     </row>
     <row r="985" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="8" t="s">
-        <v>1165</v>
+        <v>137</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C985" s="7" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="D985" s="3" t="s">
         <v>392</v>
@@ -21776,13 +21775,13 @@
     </row>
     <row r="986" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="8" t="s">
-        <v>137</v>
+        <v>1382</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C986" s="7" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D986" s="3" t="s">
         <v>392</v>
@@ -21796,10 +21795,10 @@
         <v>1382</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C987" s="7" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D987" s="3" t="s">
         <v>392</v>
@@ -21810,16 +21809,16 @@
     </row>
     <row r="988" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="8" t="s">
-        <v>1382</v>
+        <v>1248</v>
       </c>
       <c r="B988" s="8" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C988" s="7" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="D988" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E988" s="6" t="s">
         <v>1427</v>
@@ -21827,16 +21826,16 @@
     </row>
     <row r="989" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="8" t="s">
-        <v>1248</v>
+        <v>1040</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C989" s="7" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="D989" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E989" s="6" t="s">
         <v>1427</v>
@@ -21844,13 +21843,13 @@
     </row>
     <row r="990" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="8" t="s">
-        <v>1040</v>
+        <v>1382</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C990" s="7" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="D990" s="3" t="s">
         <v>392</v>
@@ -21861,13 +21860,13 @@
     </row>
     <row r="991" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="8" t="s">
-        <v>1382</v>
+        <v>137</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C991" s="7" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="D991" s="3" t="s">
         <v>392</v>
@@ -21878,13 +21877,13 @@
     </row>
     <row r="992" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="8" t="s">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C992" s="7" t="s">
-        <v>1398</v>
+        <v>1417</v>
       </c>
       <c r="D992" s="3" t="s">
         <v>392</v>
@@ -21893,26 +21892,46 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="993" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B993" s="8" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C993" s="7" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D993" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E993" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A7:E993"/>
+  <autoFilter ref="A7:E992"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/finalReport/FalsePositives.xlsx
+++ b/finalReport/FalsePositives.xlsx
@@ -11,14 +11,14 @@
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FalsePositives!$A$7:$E$992</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FalsePositives!$A$7:$E$991</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="1428">
   <si>
     <t>Transcript Description (c.)</t>
   </si>
@@ -4172,9 +4172,6 @@
     <t>c.1177C&gt;G</t>
   </si>
   <si>
-    <t>SNP non pathogène</t>
-  </si>
-  <si>
     <t>c.1266_1267insGGGGGCG</t>
   </si>
   <si>
@@ -4368,13 +4365,16 @@
   </si>
   <si>
     <t>LAM-illumina-v1,LAM-illumina-v2,LAM-illumina-v3,LMMC-MAI-v1</t>
+  </si>
+  <si>
+    <t>pas d'accents svp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4534,6 +4534,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4907,7 +4915,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4918,6 +4926,7 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5260,9 +5269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E992"/>
+  <dimension ref="A1:E991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632:XFD632"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5306,7 +5317,9 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>1427</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13646,7 +13659,7 @@
         <v>806</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13663,7 +13676,7 @@
         <v>806</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13680,7 +13693,7 @@
         <v>806</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13697,7 +13710,7 @@
         <v>806</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13714,7 +13727,7 @@
         <v>806</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,7 +13741,7 @@
         <v>806</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13745,7 +13758,7 @@
         <v>806</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13762,7 +13775,7 @@
         <v>806</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13779,7 +13792,7 @@
         <v>806</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13796,7 +13809,7 @@
         <v>806</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13813,7 +13826,7 @@
         <v>392</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13830,7 +13843,7 @@
         <v>806</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13847,7 +13860,7 @@
         <v>806</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,7 +13877,7 @@
         <v>392</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13881,7 +13894,7 @@
         <v>806</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13898,7 +13911,7 @@
         <v>806</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13915,7 +13928,7 @@
         <v>806</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13932,7 +13945,7 @@
         <v>806</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,7 +13962,7 @@
         <v>806</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13966,7 +13979,7 @@
         <v>806</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13983,7 +13996,7 @@
         <v>806</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14000,7 +14013,7 @@
         <v>806</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14017,7 +14030,7 @@
         <v>806</v>
       </c>
       <c r="E527" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14034,7 +14047,7 @@
         <v>806</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14048,7 +14061,7 @@
         <v>806</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,7 +14078,7 @@
         <v>806</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14082,7 +14095,7 @@
         <v>806</v>
       </c>
       <c r="E531" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14099,7 +14112,7 @@
         <v>806</v>
       </c>
       <c r="E532" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14116,7 +14129,7 @@
         <v>806</v>
       </c>
       <c r="E533" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14133,7 +14146,7 @@
         <v>806</v>
       </c>
       <c r="E534" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14150,7 +14163,7 @@
         <v>806</v>
       </c>
       <c r="E535" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14167,7 +14180,7 @@
         <v>806</v>
       </c>
       <c r="E536" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14184,7 +14197,7 @@
         <v>806</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14201,7 +14214,7 @@
         <v>806</v>
       </c>
       <c r="E538" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14218,7 +14231,7 @@
         <v>806</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14235,7 +14248,7 @@
         <v>806</v>
       </c>
       <c r="E540" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14252,7 +14265,7 @@
         <v>806</v>
       </c>
       <c r="E541" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14269,7 +14282,7 @@
         <v>806</v>
       </c>
       <c r="E542" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14286,7 +14299,7 @@
         <v>806</v>
       </c>
       <c r="E543" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14303,7 +14316,7 @@
         <v>806</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14320,7 +14333,7 @@
         <v>806</v>
       </c>
       <c r="E545" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14337,7 +14350,7 @@
         <v>806</v>
       </c>
       <c r="E546" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14354,7 +14367,7 @@
         <v>806</v>
       </c>
       <c r="E547" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14371,7 +14384,7 @@
         <v>806</v>
       </c>
       <c r="E548" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14388,7 +14401,7 @@
         <v>806</v>
       </c>
       <c r="E549" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14405,7 +14418,7 @@
         <v>806</v>
       </c>
       <c r="E550" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14422,7 +14435,7 @@
         <v>806</v>
       </c>
       <c r="E551" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14439,7 +14452,7 @@
         <v>806</v>
       </c>
       <c r="E552" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14456,7 +14469,7 @@
         <v>806</v>
       </c>
       <c r="E553" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14473,7 +14486,7 @@
         <v>806</v>
       </c>
       <c r="E554" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14490,7 +14503,7 @@
         <v>806</v>
       </c>
       <c r="E555" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14507,7 +14520,7 @@
         <v>806</v>
       </c>
       <c r="E556" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14524,7 +14537,7 @@
         <v>806</v>
       </c>
       <c r="E557" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14541,7 +14554,7 @@
         <v>806</v>
       </c>
       <c r="E558" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14558,7 +14571,7 @@
         <v>806</v>
       </c>
       <c r="E559" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14575,7 +14588,7 @@
         <v>806</v>
       </c>
       <c r="E560" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14592,7 +14605,7 @@
         <v>806</v>
       </c>
       <c r="E561" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14609,7 +14622,7 @@
         <v>806</v>
       </c>
       <c r="E562" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14626,7 +14639,7 @@
         <v>806</v>
       </c>
       <c r="E563" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14643,7 +14656,7 @@
         <v>806</v>
       </c>
       <c r="E564" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14660,7 +14673,7 @@
         <v>392</v>
       </c>
       <c r="E565" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14677,7 +14690,7 @@
         <v>806</v>
       </c>
       <c r="E566" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14694,7 +14707,7 @@
         <v>806</v>
       </c>
       <c r="E567" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,7 +14724,7 @@
         <v>806</v>
       </c>
       <c r="E568" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14725,7 +14738,7 @@
         <v>806</v>
       </c>
       <c r="E569" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14739,7 +14752,7 @@
         <v>806</v>
       </c>
       <c r="E570" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14753,7 +14766,7 @@
         <v>806</v>
       </c>
       <c r="E571" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14770,7 +14783,7 @@
         <v>806</v>
       </c>
       <c r="E572" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14787,7 +14800,7 @@
         <v>806</v>
       </c>
       <c r="E573" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14804,7 +14817,7 @@
         <v>806</v>
       </c>
       <c r="E574" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14821,7 +14834,7 @@
         <v>806</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14838,7 +14851,7 @@
         <v>806</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,7 +14868,7 @@
         <v>806</v>
       </c>
       <c r="E577" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14872,7 +14885,7 @@
         <v>806</v>
       </c>
       <c r="E578" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14889,7 +14902,7 @@
         <v>806</v>
       </c>
       <c r="E579" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14906,7 +14919,7 @@
         <v>806</v>
       </c>
       <c r="E580" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14923,7 +14936,7 @@
         <v>806</v>
       </c>
       <c r="E581" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14940,7 +14953,7 @@
         <v>806</v>
       </c>
       <c r="E582" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14957,7 +14970,7 @@
         <v>392</v>
       </c>
       <c r="E583" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14974,7 +14987,7 @@
         <v>392</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14991,7 +15004,7 @@
         <v>392</v>
       </c>
       <c r="E585" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,7 +15021,7 @@
         <v>392</v>
       </c>
       <c r="E586" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15025,7 +15038,7 @@
         <v>392</v>
       </c>
       <c r="E587" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15042,7 +15055,7 @@
         <v>392</v>
       </c>
       <c r="E588" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15059,7 +15072,7 @@
         <v>392</v>
       </c>
       <c r="E589" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15076,7 +15089,7 @@
         <v>806</v>
       </c>
       <c r="E590" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15093,7 +15106,7 @@
         <v>859</v>
       </c>
       <c r="E591" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15110,7 +15123,7 @@
         <v>806</v>
       </c>
       <c r="E592" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15127,7 +15140,7 @@
         <v>859</v>
       </c>
       <c r="E593" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15144,7 +15157,7 @@
         <v>806</v>
       </c>
       <c r="E594" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15161,7 +15174,7 @@
         <v>806</v>
       </c>
       <c r="E595" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15178,7 +15191,7 @@
         <v>806</v>
       </c>
       <c r="E596" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15192,7 +15205,7 @@
         <v>806</v>
       </c>
       <c r="E597" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15206,7 +15219,7 @@
         <v>806</v>
       </c>
       <c r="E598" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15223,7 +15236,7 @@
         <v>806</v>
       </c>
       <c r="E599" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15240,7 +15253,7 @@
         <v>806</v>
       </c>
       <c r="E600" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15257,7 +15270,7 @@
         <v>806</v>
       </c>
       <c r="E601" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15274,7 +15287,7 @@
         <v>806</v>
       </c>
       <c r="E602" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15288,7 +15301,7 @@
         <v>806</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15305,7 +15318,7 @@
         <v>806</v>
       </c>
       <c r="E604" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15322,7 +15335,7 @@
         <v>806</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15339,7 +15352,7 @@
         <v>806</v>
       </c>
       <c r="E606" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15356,7 +15369,7 @@
         <v>806</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15373,7 +15386,7 @@
         <v>806</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15390,7 +15403,7 @@
         <v>806</v>
       </c>
       <c r="E609" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,7 +15417,7 @@
         <v>806</v>
       </c>
       <c r="E610" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15421,7 +15434,7 @@
         <v>806</v>
       </c>
       <c r="E611" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15438,7 +15451,7 @@
         <v>806</v>
       </c>
       <c r="E612" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15455,7 +15468,7 @@
         <v>806</v>
       </c>
       <c r="E613" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15472,7 +15485,7 @@
         <v>806</v>
       </c>
       <c r="E614" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15489,7 +15502,7 @@
         <v>806</v>
       </c>
       <c r="E615" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15506,7 +15519,7 @@
         <v>806</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15523,7 +15536,7 @@
         <v>806</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15540,7 +15553,7 @@
         <v>806</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15557,7 +15570,7 @@
         <v>806</v>
       </c>
       <c r="E619" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15574,7 +15587,7 @@
         <v>392</v>
       </c>
       <c r="E620" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15591,7 +15604,7 @@
         <v>806</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15608,7 +15621,7 @@
         <v>806</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15625,7 +15638,7 @@
         <v>806</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15642,7 +15655,7 @@
         <v>806</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15659,7 +15672,7 @@
         <v>806</v>
       </c>
       <c r="E625" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15676,7 +15689,7 @@
         <v>806</v>
       </c>
       <c r="E626" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15693,7 +15706,7 @@
         <v>806</v>
       </c>
       <c r="E627" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15710,7 +15723,7 @@
         <v>806</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15727,7 +15740,7 @@
         <v>806</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15744,7 +15757,7 @@
         <v>806</v>
       </c>
       <c r="E630" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15761,7 +15774,7 @@
         <v>806</v>
       </c>
       <c r="E631" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15769,16 +15782,16 @@
         <v>253</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>256</v>
+        <v>881</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>257</v>
+        <v>882</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E632" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15786,16 +15799,16 @@
         <v>253</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D633" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15803,16 +15816,16 @@
         <v>253</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>806</v>
+        <v>887</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15820,16 +15833,16 @@
         <v>253</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>885</v>
+        <v>758</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>887</v>
+        <v>806</v>
       </c>
       <c r="E635" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15837,16 +15850,16 @@
         <v>253</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>758</v>
+        <v>889</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D636" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E636" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15854,16 +15867,16 @@
         <v>253</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D637" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E637" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15871,16 +15884,16 @@
         <v>253</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D638" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15888,33 +15901,33 @@
         <v>253</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E639" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="8" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="E640" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15922,16 +15935,16 @@
         <v>194</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D641" s="3" t="s">
         <v>859</v>
       </c>
       <c r="E641" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15939,16 +15952,16 @@
         <v>194</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D642" s="3" t="s">
         <v>859</v>
       </c>
       <c r="E642" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15956,16 +15969,16 @@
         <v>194</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="D643" s="3" t="s">
-        <v>859</v>
+        <v>904</v>
+      </c>
+      <c r="D643" s="9" t="s">
+        <v>1360</v>
       </c>
       <c r="E643" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15973,16 +15986,13 @@
         <v>194</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="C644" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="D644" s="9" t="s">
-        <v>1360</v>
+        <v>569</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E644" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15990,13 +16000,16 @@
         <v>194</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>569</v>
+        <v>195</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D645" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E645" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16004,16 +16017,16 @@
         <v>194</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>195</v>
+        <v>905</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>196</v>
+        <v>906</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E646" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16021,16 +16034,16 @@
         <v>194</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>905</v>
+        <v>200</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>906</v>
+        <v>201</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E647" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16038,16 +16051,16 @@
         <v>194</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>201</v>
+        <v>1345</v>
       </c>
       <c r="D648" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E648" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16055,16 +16068,16 @@
         <v>194</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>199</v>
+        <v>907</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1345</v>
+        <v>908</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E649" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16072,16 +16085,16 @@
         <v>194</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D650" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E650" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16089,16 +16102,16 @@
         <v>194</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>909</v>
+        <v>197</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>910</v>
+        <v>198</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E651" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16106,16 +16119,16 @@
         <v>194</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>197</v>
+        <v>911</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>198</v>
+        <v>912</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E652" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16123,16 +16136,16 @@
         <v>194</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D653" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E653" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16140,16 +16153,16 @@
         <v>194</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="D654" s="3" t="s">
-        <v>392</v>
+        <v>916</v>
+      </c>
+      <c r="D654" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="E654" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16157,16 +16170,16 @@
         <v>194</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="D655" s="9" t="s">
-        <v>859</v>
+        <v>918</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="E655" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16174,16 +16187,16 @@
         <v>194</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D656" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E656" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16191,16 +16204,16 @@
         <v>194</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E657" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16208,16 +16221,16 @@
         <v>194</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E658" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16225,33 +16238,33 @@
         <v>194</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D659" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E659" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>925</v>
+        <v>245</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>926</v>
+        <v>246</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E660" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16259,16 +16272,16 @@
         <v>239</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D661" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E661" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16276,16 +16289,16 @@
         <v>239</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E662" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16293,16 +16306,16 @@
         <v>239</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D663" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E663" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16310,16 +16323,16 @@
         <v>239</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D664" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E664" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16327,16 +16340,16 @@
         <v>239</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E665" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16344,16 +16357,16 @@
         <v>239</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>242</v>
+        <v>698</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>243</v>
+        <v>699</v>
       </c>
       <c r="D666" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E666" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16361,16 +16374,13 @@
         <v>239</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="C667" s="7" t="s">
-        <v>699</v>
+        <v>244</v>
       </c>
       <c r="D667" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E667" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16378,30 +16388,33 @@
         <v>239</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>244</v>
+        <v>710</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>711</v>
       </c>
       <c r="D668" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E668" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="8" t="s">
-        <v>239</v>
+        <v>927</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>710</v>
+        <v>928</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>711</v>
+        <v>929</v>
       </c>
       <c r="D669" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E669" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16409,33 +16422,33 @@
         <v>927</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D670" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E670" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="8" t="s">
-        <v>927</v>
+        <v>597</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>930</v>
+        <v>598</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>931</v>
+        <v>599</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E671" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16443,16 +16456,16 @@
         <v>597</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>598</v>
+        <v>932</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>599</v>
+        <v>933</v>
       </c>
       <c r="D672" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E672" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16460,16 +16473,16 @@
         <v>597</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E673" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16477,33 +16490,33 @@
         <v>597</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E674" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="8" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>936</v>
+        <v>641</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>937</v>
+        <v>642</v>
       </c>
       <c r="D675" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E675" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16511,16 +16524,16 @@
         <v>640</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D676" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E676" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16528,16 +16541,16 @@
         <v>640</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D677" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E677" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16545,16 +16558,16 @@
         <v>640</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D678" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E678" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16562,33 +16575,33 @@
         <v>640</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>647</v>
+        <v>938</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>648</v>
+        <v>939</v>
       </c>
       <c r="D679" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E679" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="8" t="s">
-        <v>640</v>
+        <v>134</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E680" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16596,33 +16609,33 @@
         <v>134</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E681" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="8" t="s">
-        <v>134</v>
+        <v>944</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>806</v>
+        <v>947</v>
       </c>
       <c r="E682" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16630,16 +16643,16 @@
         <v>944</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>947</v>
+        <v>806</v>
       </c>
       <c r="E683" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16647,33 +16660,33 @@
         <v>944</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D684" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E684" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="8" t="s">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>950</v>
+        <v>619</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>951</v>
+        <v>620</v>
       </c>
       <c r="D685" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E685" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16681,16 +16694,16 @@
         <v>616</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D686" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E686" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16698,16 +16711,16 @@
         <v>616</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D687" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E687" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16715,16 +16728,16 @@
         <v>616</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D688" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E688" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16732,16 +16745,16 @@
         <v>616</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D689" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E689" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16749,33 +16762,33 @@
         <v>616</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>627</v>
+        <v>952</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>628</v>
+        <v>953</v>
       </c>
       <c r="D690" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E690" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="8" t="s">
-        <v>616</v>
+        <v>954</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D691" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E691" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16783,16 +16796,16 @@
         <v>954</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D692" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E692" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16800,16 +16813,16 @@
         <v>954</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D693" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E693" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16817,16 +16830,16 @@
         <v>954</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E694" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16834,16 +16847,16 @@
         <v>954</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E695" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16851,33 +16864,33 @@
         <v>954</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D696" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E696" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="8" t="s">
-        <v>954</v>
+        <v>126</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>965</v>
+        <v>258</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>966</v>
+        <v>259</v>
       </c>
       <c r="D697" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E697" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16885,16 +16898,16 @@
         <v>126</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E698" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16902,16 +16915,16 @@
         <v>126</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D699" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E699" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16919,33 +16932,33 @@
         <v>126</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>262</v>
+        <v>967</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>263</v>
+        <v>968</v>
       </c>
       <c r="D700" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E700" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="8" t="s">
-        <v>126</v>
+        <v>608</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>967</v>
+        <v>609</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>968</v>
+        <v>610</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E701" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16953,16 +16966,16 @@
         <v>608</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D702" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E702" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16970,16 +16983,16 @@
         <v>608</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>612</v>
+        <v>753</v>
       </c>
       <c r="D703" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E703" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16987,16 +17000,16 @@
         <v>608</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>752</v>
+        <v>969</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="D704" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E704" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17004,33 +17017,33 @@
         <v>608</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E705" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="8" t="s">
-        <v>608</v>
+        <v>765</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>971</v>
+        <v>766</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>972</v>
+        <v>767</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E706" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17038,67 +17051,67 @@
         <v>765</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>766</v>
+        <v>973</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>767</v>
+        <v>974</v>
       </c>
       <c r="D707" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E707" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>973</v>
+        <v>744</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>974</v>
+        <v>745</v>
       </c>
       <c r="D708" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E708" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>743</v>
+        <v>613</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>745</v>
+        <v>615</v>
       </c>
       <c r="D709" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E709" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="8" t="s">
-        <v>613</v>
+        <v>975</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>614</v>
+        <v>976</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>615</v>
+        <v>977</v>
       </c>
       <c r="D710" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E710" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17106,33 +17119,33 @@
         <v>975</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D711" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E711" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="712" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="8" t="s">
-        <v>975</v>
+        <v>154</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>978</v>
+        <v>155</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>979</v>
+        <v>156</v>
       </c>
       <c r="D712" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E712" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17140,16 +17153,16 @@
         <v>154</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D713" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E713" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="714" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17157,16 +17170,16 @@
         <v>154</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D714" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E714" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17174,16 +17187,16 @@
         <v>154</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E715" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17191,16 +17204,16 @@
         <v>154</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D716" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E716" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17208,16 +17221,16 @@
         <v>154</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>163</v>
+        <v>768</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>164</v>
+        <v>769</v>
       </c>
       <c r="D717" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E717" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17225,16 +17238,13 @@
         <v>154</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="C718" s="7" t="s">
-        <v>769</v>
+        <v>165</v>
       </c>
       <c r="D718" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E718" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17242,13 +17252,16 @@
         <v>154</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>165</v>
+        <v>531</v>
+      </c>
+      <c r="C719" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="D719" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E719" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17256,16 +17269,16 @@
         <v>154</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>531</v>
+        <v>166</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
       <c r="D720" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E720" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17273,16 +17286,16 @@
         <v>154</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>166</v>
+        <v>533</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>167</v>
+        <v>534</v>
       </c>
       <c r="D721" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E721" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17290,16 +17303,16 @@
         <v>154</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D722" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E722" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="723" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17307,16 +17320,16 @@
         <v>154</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>535</v>
+        <v>168</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="D723" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E723" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17324,16 +17337,16 @@
         <v>154</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D724" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E724" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17341,16 +17354,16 @@
         <v>154</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D725" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E725" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17358,16 +17371,16 @@
         <v>154</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D726" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E726" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17375,16 +17388,16 @@
         <v>154</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D727" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E727" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17392,16 +17405,16 @@
         <v>154</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E728" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="729" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17409,16 +17422,16 @@
         <v>154</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D729" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E729" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17426,16 +17439,16 @@
         <v>154</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D730" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E730" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="731" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17443,16 +17456,16 @@
         <v>154</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D731" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E731" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17460,16 +17473,16 @@
         <v>154</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D732" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E732" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17477,16 +17490,16 @@
         <v>154</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E733" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="734" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17494,16 +17507,16 @@
         <v>154</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E734" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17511,16 +17524,16 @@
         <v>154</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E735" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17528,16 +17541,16 @@
         <v>154</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>192</v>
+        <v>980</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>193</v>
+        <v>981</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E736" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="737" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17545,16 +17558,16 @@
         <v>154</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E737" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17562,33 +17575,33 @@
         <v>154</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D738" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E738" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="8" t="s">
-        <v>154</v>
+        <v>572</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>984</v>
+        <v>573</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>985</v>
+        <v>574</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E739" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="740" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17596,16 +17609,16 @@
         <v>572</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D740" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E740" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="741" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17613,16 +17626,16 @@
         <v>572</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D741" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E741" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17630,16 +17643,16 @@
         <v>572</v>
       </c>
       <c r="B742" s="8" t="s">
-        <v>577</v>
+        <v>784</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>578</v>
+        <v>785</v>
       </c>
       <c r="D742" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E742" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="743" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17647,16 +17660,16 @@
         <v>572</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>784</v>
+        <v>986</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>785</v>
+        <v>987</v>
       </c>
       <c r="D743" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E743" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17664,33 +17677,33 @@
         <v>572</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D744" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E744" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="8" t="s">
-        <v>572</v>
+        <v>990</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D745" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E745" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17698,16 +17711,16 @@
         <v>990</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D746" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E746" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="747" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17715,16 +17728,16 @@
         <v>990</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D747" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E747" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="748" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17732,16 +17745,16 @@
         <v>990</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D748" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E748" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17749,16 +17762,16 @@
         <v>990</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D749" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E749" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="750" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17766,16 +17779,16 @@
         <v>990</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D750" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E750" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17783,16 +17796,16 @@
         <v>990</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D751" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E751" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="752" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17800,33 +17813,33 @@
         <v>990</v>
       </c>
       <c r="B752" s="8" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D752" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E752" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="8" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D753" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E753" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17834,16 +17847,16 @@
         <v>1007</v>
       </c>
       <c r="B754" s="8" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D754" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E754" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17851,16 +17864,16 @@
         <v>1007</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D755" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E755" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="756" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17868,16 +17881,16 @@
         <v>1007</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D756" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E756" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="757" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17885,16 +17898,16 @@
         <v>1007</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D757" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E757" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="758" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17902,33 +17915,33 @@
         <v>1007</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E758" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="8" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E759" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17936,33 +17949,33 @@
         <v>1020</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D760" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E760" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="8" t="s">
-        <v>1020</v>
+        <v>552</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>1023</v>
+        <v>553</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1024</v>
+        <v>554</v>
       </c>
       <c r="D761" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E761" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="762" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17970,16 +17983,16 @@
         <v>552</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D762" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E762" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17987,16 +18000,16 @@
         <v>552</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E763" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18004,16 +18017,16 @@
         <v>552</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D764" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E764" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="765" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18021,16 +18034,16 @@
         <v>552</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E765" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="766" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18038,16 +18051,16 @@
         <v>552</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D766" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E766" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18055,16 +18068,16 @@
         <v>552</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C767" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D767" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E767" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18072,16 +18085,16 @@
         <v>552</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C768" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E768" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18089,16 +18102,16 @@
         <v>552</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>567</v>
+        <v>759</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>568</v>
+        <v>760</v>
       </c>
       <c r="D769" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E769" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18106,16 +18119,16 @@
         <v>552</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E770" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18123,33 +18136,33 @@
         <v>552</v>
       </c>
       <c r="B771" s="8" t="s">
-        <v>780</v>
+        <v>1025</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>781</v>
+        <v>1026</v>
       </c>
       <c r="D771" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E771" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="8" t="s">
-        <v>552</v>
+        <v>800</v>
       </c>
       <c r="B772" s="8" t="s">
-        <v>1025</v>
+        <v>209</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>1026</v>
+        <v>210</v>
       </c>
       <c r="D772" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E772" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18157,16 +18170,16 @@
         <v>800</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E773" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="774" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18174,16 +18187,16 @@
         <v>800</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D774" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E774" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18191,16 +18204,16 @@
         <v>800</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>203</v>
+        <v>1027</v>
       </c>
       <c r="C775" s="7" t="s">
-        <v>204</v>
+        <v>1028</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E775" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="776" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18208,16 +18221,16 @@
         <v>800</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>1027</v>
+        <v>794</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D776" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E776" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18225,33 +18238,33 @@
         <v>800</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>794</v>
+        <v>1030</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E777" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="778" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="8" t="s">
-        <v>800</v>
+        <v>584</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>1030</v>
+        <v>750</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>1031</v>
+        <v>751</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E778" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
@@ -18259,16 +18272,16 @@
         <v>584</v>
       </c>
       <c r="B779" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D779" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E779" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
@@ -18276,16 +18289,16 @@
         <v>584</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E780" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -18293,16 +18306,16 @@
         <v>584</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E781" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -18310,16 +18323,16 @@
         <v>584</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E782" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -18327,16 +18340,16 @@
         <v>584</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C783" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D783" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E783" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -18344,16 +18357,16 @@
         <v>584</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C784" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E784" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
@@ -18361,16 +18374,16 @@
         <v>584</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="C785" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D785" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E785" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
@@ -18378,16 +18391,16 @@
         <v>584</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D786" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E786" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
@@ -18395,16 +18408,16 @@
         <v>584</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="C787" s="7" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E787" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
@@ -18412,16 +18425,16 @@
         <v>584</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>724</v>
+        <v>782</v>
       </c>
       <c r="C788" s="7" t="s">
-        <v>725</v>
+        <v>783</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E788" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -18429,16 +18442,16 @@
         <v>584</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
       <c r="C789" s="7" t="s">
-        <v>783</v>
+        <v>596</v>
       </c>
       <c r="D789" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E789" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
@@ -18446,16 +18459,16 @@
         <v>584</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C790" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E790" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -18463,16 +18476,16 @@
         <v>584</v>
       </c>
       <c r="B791" s="8" t="s">
-        <v>585</v>
+        <v>1032</v>
       </c>
       <c r="C791" s="7" t="s">
-        <v>586</v>
+        <v>1033</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E791" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
@@ -18480,16 +18493,16 @@
         <v>584</v>
       </c>
       <c r="B792" s="8" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C792" s="7" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D792" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E792" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -18497,16 +18510,16 @@
         <v>584</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>1034</v>
+        <v>587</v>
       </c>
       <c r="C793" s="7" t="s">
-        <v>1035</v>
+        <v>588</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E793" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -18514,16 +18527,16 @@
         <v>584</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C794" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D794" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E794" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -18531,16 +18544,16 @@
         <v>584</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C795" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D795" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E795" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
@@ -18548,16 +18561,16 @@
         <v>584</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C796" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D796" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E796" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -18565,33 +18578,33 @@
         <v>584</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>593</v>
+        <v>1036</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>594</v>
+        <v>1037</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E797" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="8" t="s">
-        <v>584</v>
+        <v>58</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>1036</v>
+        <v>272</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>1037</v>
+        <v>273</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E798" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18599,16 +18612,16 @@
         <v>58</v>
       </c>
       <c r="B799" s="8" t="s">
-        <v>272</v>
+        <v>600</v>
       </c>
       <c r="C799" s="7" t="s">
-        <v>273</v>
+        <v>601</v>
       </c>
       <c r="D799" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E799" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18616,33 +18629,33 @@
         <v>58</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>600</v>
+        <v>1038</v>
       </c>
       <c r="C800" s="7" t="s">
-        <v>601</v>
+        <v>1039</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E800" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="8" t="s">
-        <v>58</v>
+        <v>1040</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D801" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E801" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18650,16 +18663,16 @@
         <v>1040</v>
       </c>
       <c r="B802" s="8" t="s">
-        <v>1041</v>
+        <v>542</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E802" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18667,16 +18680,16 @@
         <v>1040</v>
       </c>
       <c r="B803" s="8" t="s">
-        <v>542</v>
+        <v>1044</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E803" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,16 +18697,16 @@
         <v>1040</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D804" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E804" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18701,16 +18714,16 @@
         <v>1040</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E805" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18718,16 +18731,16 @@
         <v>1040</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D806" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E806" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18735,33 +18748,33 @@
         <v>1040</v>
       </c>
       <c r="B807" s="8" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E807" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="8" t="s">
-        <v>1040</v>
+        <v>414</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E808" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18769,16 +18782,16 @@
         <v>414</v>
       </c>
       <c r="B809" s="8" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E809" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18786,16 +18799,16 @@
         <v>414</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D810" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E810" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18803,16 +18816,16 @@
         <v>414</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C811" s="7" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E811" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18820,16 +18833,16 @@
         <v>414</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C812" s="7" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E812" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18837,16 +18850,16 @@
         <v>414</v>
       </c>
       <c r="B813" s="8" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C813" s="7" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E813" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="814" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18854,16 +18867,16 @@
         <v>414</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D814" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E814" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="815" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18871,16 +18884,16 @@
         <v>414</v>
       </c>
       <c r="B815" s="8" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C815" s="7" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E815" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18888,16 +18901,16 @@
         <v>414</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C816" s="7" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D816" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E816" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18905,16 +18918,16 @@
         <v>414</v>
       </c>
       <c r="B817" s="8" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E817" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18922,16 +18935,16 @@
         <v>414</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E818" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18939,16 +18952,16 @@
         <v>414</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D819" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E819" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18956,16 +18969,16 @@
         <v>414</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D820" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E820" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="821" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18973,16 +18986,16 @@
         <v>414</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D821" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E821" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="822" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18990,16 +19003,16 @@
         <v>414</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C822" s="7" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D822" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E822" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="823" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19007,16 +19020,16 @@
         <v>414</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D823" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E823" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="824" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19024,16 +19037,16 @@
         <v>414</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E824" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="825" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19041,16 +19054,16 @@
         <v>414</v>
       </c>
       <c r="B825" s="8" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C825" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D825" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E825" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19058,16 +19071,16 @@
         <v>414</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C826" s="7" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D826" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E826" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19075,16 +19088,16 @@
         <v>414</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>1090</v>
+        <v>425</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>1091</v>
+        <v>1346</v>
       </c>
       <c r="D827" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E827" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="828" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19092,16 +19105,16 @@
         <v>414</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>425</v>
+        <v>1092</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>1346</v>
+        <v>1093</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E828" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="829" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19109,16 +19122,16 @@
         <v>414</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>1092</v>
+        <v>423</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>1093</v>
+        <v>424</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E829" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19126,16 +19139,16 @@
         <v>414</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>423</v>
+        <v>1094</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>424</v>
+        <v>1095</v>
       </c>
       <c r="D830" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E830" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="831" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19143,16 +19156,16 @@
         <v>414</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C831" s="7" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D831" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E831" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19160,16 +19173,16 @@
         <v>414</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C832" s="7" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D832" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E832" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19177,16 +19190,16 @@
         <v>414</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>1098</v>
+        <v>421</v>
       </c>
       <c r="C833" s="7" t="s">
-        <v>1099</v>
+        <v>422</v>
       </c>
       <c r="D833" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E833" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19194,16 +19207,16 @@
         <v>414</v>
       </c>
       <c r="B834" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C834" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D834" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E834" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19211,16 +19224,16 @@
         <v>414</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D835" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E835" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19228,16 +19241,16 @@
         <v>414</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>417</v>
+        <v>1100</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>418</v>
+        <v>1101</v>
       </c>
       <c r="D836" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E836" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19245,16 +19258,16 @@
         <v>414</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D837" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E837" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19262,16 +19275,16 @@
         <v>414</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E838" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19279,16 +19292,16 @@
         <v>414</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E839" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19296,16 +19309,16 @@
         <v>414</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D840" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E840" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19313,16 +19326,16 @@
         <v>414</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D841" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E841" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19330,16 +19343,16 @@
         <v>414</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E842" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19347,16 +19360,16 @@
         <v>414</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E843" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19364,16 +19377,16 @@
         <v>414</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D844" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E844" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19381,16 +19394,16 @@
         <v>414</v>
       </c>
       <c r="B845" s="8" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D845" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E845" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19398,16 +19411,16 @@
         <v>414</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D846" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E846" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19415,16 +19428,16 @@
         <v>414</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E847" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19432,16 +19445,16 @@
         <v>414</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E848" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19449,16 +19462,16 @@
         <v>414</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E849" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19466,16 +19479,16 @@
         <v>414</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>1126</v>
+        <v>450</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>1127</v>
+        <v>451</v>
       </c>
       <c r="D850" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E850" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="851" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19483,16 +19496,16 @@
         <v>414</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>450</v>
+        <v>1128</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>451</v>
+        <v>1129</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E851" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19500,16 +19513,16 @@
         <v>414</v>
       </c>
       <c r="B852" s="8" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E852" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19517,16 +19530,16 @@
         <v>414</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E853" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="854" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19534,16 +19547,16 @@
         <v>414</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>1132</v>
+        <v>488</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>1133</v>
+        <v>489</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E854" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19551,16 +19564,16 @@
         <v>414</v>
       </c>
       <c r="B855" s="8" t="s">
-        <v>488</v>
+        <v>1134</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>489</v>
+        <v>1135</v>
       </c>
       <c r="D855" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E855" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19568,16 +19581,16 @@
         <v>414</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D856" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E856" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19585,16 +19598,16 @@
         <v>414</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D857" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E857" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="858" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19602,16 +19615,16 @@
         <v>414</v>
       </c>
       <c r="B858" s="8" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E858" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19619,16 +19632,16 @@
         <v>414</v>
       </c>
       <c r="B859" s="8" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E859" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19636,16 +19649,16 @@
         <v>414</v>
       </c>
       <c r="B860" s="8" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E860" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19653,16 +19666,16 @@
         <v>414</v>
       </c>
       <c r="B861" s="8" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D861" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E861" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19670,16 +19683,16 @@
         <v>414</v>
       </c>
       <c r="B862" s="8" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E862" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19687,16 +19700,16 @@
         <v>414</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D863" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E863" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19704,16 +19717,16 @@
         <v>414</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D864" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E864" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19721,16 +19734,16 @@
         <v>414</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D865" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E865" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19738,16 +19751,16 @@
         <v>414</v>
       </c>
       <c r="B866" s="8" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D866" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E866" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19755,16 +19768,16 @@
         <v>414</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>1157</v>
+        <v>1358</v>
       </c>
       <c r="D867" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E867" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19772,16 +19785,16 @@
         <v>414</v>
       </c>
       <c r="B868" s="8" t="s">
-        <v>1158</v>
+        <v>470</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>1358</v>
+        <v>471</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E868" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19789,16 +19802,16 @@
         <v>414</v>
       </c>
       <c r="B869" s="8" t="s">
-        <v>470</v>
+        <v>1159</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>471</v>
+        <v>1160</v>
       </c>
       <c r="D869" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E869" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="870" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19806,16 +19819,16 @@
         <v>414</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>1159</v>
+        <v>430</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>1160</v>
+        <v>431</v>
       </c>
       <c r="D870" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E870" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="871" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19823,16 +19836,16 @@
         <v>414</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>430</v>
+        <v>1161</v>
       </c>
       <c r="C871" s="7" t="s">
-        <v>431</v>
+        <v>1162</v>
       </c>
       <c r="D871" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E871" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="872" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19840,16 +19853,16 @@
         <v>414</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>1161</v>
+        <v>428</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>1162</v>
+        <v>429</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E872" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="873" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19857,16 +19870,16 @@
         <v>414</v>
       </c>
       <c r="B873" s="8" t="s">
-        <v>428</v>
+        <v>1163</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>429</v>
+        <v>1164</v>
       </c>
       <c r="D873" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E873" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="874" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19874,33 +19887,33 @@
         <v>414</v>
       </c>
       <c r="B874" s="8" t="s">
-        <v>1163</v>
+        <v>426</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>1164</v>
+        <v>427</v>
       </c>
       <c r="D874" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E874" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="875" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="8" t="s">
-        <v>414</v>
+        <v>1165</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>426</v>
+        <v>1166</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>427</v>
+        <v>1167</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E875" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="876" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19908,16 +19921,16 @@
         <v>1165</v>
       </c>
       <c r="B876" s="8" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D876" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E876" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="877" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19925,16 +19938,16 @@
         <v>1165</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D877" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E877" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="878" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19942,16 +19955,16 @@
         <v>1165</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D878" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E878" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="879" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19959,16 +19972,16 @@
         <v>1165</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D879" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E879" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="880" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19976,16 +19989,16 @@
         <v>1165</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D880" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E880" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="881" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19993,16 +20006,16 @@
         <v>1165</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D881" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E881" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20010,16 +20023,16 @@
         <v>1165</v>
       </c>
       <c r="B882" s="8" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D882" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E882" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="883" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20027,16 +20040,16 @@
         <v>1165</v>
       </c>
       <c r="B883" s="8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D883" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E883" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="884" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20044,16 +20057,16 @@
         <v>1165</v>
       </c>
       <c r="B884" s="8" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E884" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20061,16 +20074,16 @@
         <v>1165</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D885" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E885" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="886" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20078,16 +20091,16 @@
         <v>1165</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D886" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E886" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="887" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20095,33 +20108,33 @@
         <v>1165</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E887" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="888" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="8" t="s">
-        <v>1165</v>
+        <v>1192</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E888" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="889" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20129,16 +20142,16 @@
         <v>1192</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D889" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E889" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="890" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20146,16 +20159,16 @@
         <v>1192</v>
       </c>
       <c r="B890" s="8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D890" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E890" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="891" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20163,16 +20176,16 @@
         <v>1192</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C891" s="7" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D891" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E891" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="892" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20180,16 +20193,16 @@
         <v>1192</v>
       </c>
       <c r="B892" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D892" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E892" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="893" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20197,16 +20210,16 @@
         <v>1192</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D893" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E893" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="894" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20214,16 +20227,16 @@
         <v>1192</v>
       </c>
       <c r="B894" s="8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D894" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E894" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="895" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20231,16 +20244,16 @@
         <v>1192</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D895" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E895" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="896" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20248,16 +20261,16 @@
         <v>1192</v>
       </c>
       <c r="B896" s="8" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E896" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="897" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20265,16 +20278,16 @@
         <v>1192</v>
       </c>
       <c r="B897" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C897" s="7" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D897" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E897" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="898" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20282,16 +20295,16 @@
         <v>1192</v>
       </c>
       <c r="B898" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C898" s="7" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D898" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E898" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="899" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20299,33 +20312,33 @@
         <v>1192</v>
       </c>
       <c r="B899" s="8" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D899" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E899" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="900" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="8" t="s">
-        <v>1192</v>
+        <v>414</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D900" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E900" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="901" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20333,67 +20346,67 @@
         <v>414</v>
       </c>
       <c r="B901" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E901" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="902" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="8" t="s">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E902" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="903" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="8" t="s">
-        <v>137</v>
+        <v>840</v>
       </c>
       <c r="B903" s="8" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C903" s="7" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E903" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="904" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="8" t="s">
-        <v>840</v>
+        <v>414</v>
       </c>
       <c r="B904" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C904" s="7" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D904" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E904" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="905" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20401,50 +20414,50 @@
         <v>414</v>
       </c>
       <c r="B905" s="8" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C905" s="7" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E905" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="906" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="8" t="s">
-        <v>414</v>
+        <v>1020</v>
       </c>
       <c r="B906" s="8" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C906" s="7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>392</v>
+        <v>1231</v>
       </c>
       <c r="E906" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="907" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="8" t="s">
-        <v>1020</v>
+        <v>346</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C907" s="7" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>1231</v>
+        <v>859</v>
       </c>
       <c r="E907" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="908" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20452,16 +20465,16 @@
         <v>346</v>
       </c>
       <c r="B908" s="8" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C908" s="7" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D908" s="3" t="s">
         <v>859</v>
       </c>
       <c r="E908" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="909" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20469,135 +20482,135 @@
         <v>346</v>
       </c>
       <c r="B909" s="8" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C909" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D909" s="3" t="s">
-        <v>859</v>
+        <v>1237</v>
+      </c>
+      <c r="D909" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="E909" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="910" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="8" t="s">
-        <v>346</v>
+        <v>990</v>
       </c>
       <c r="B910" s="8" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C910" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D910" s="9" t="s">
-        <v>392</v>
+        <v>1239</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E910" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="911" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="8" t="s">
-        <v>990</v>
+        <v>414</v>
       </c>
       <c r="B911" s="8" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C911" s="7" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D911" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E911" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="912" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="8" t="s">
-        <v>414</v>
+        <v>134</v>
       </c>
       <c r="B912" s="8" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C912" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E912" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="913" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="8" t="s">
-        <v>134</v>
+        <v>1192</v>
       </c>
       <c r="B913" s="8" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C913" s="7" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D913" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E913" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="914" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="8" t="s">
-        <v>1192</v>
+        <v>346</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C914" s="7" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D914" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D914" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E914" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="915" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="8" t="s">
-        <v>346</v>
+        <v>1248</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C915" s="7" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D915" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E915" s="6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B916" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C916" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D916" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E915" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="916" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B916" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C916" s="7" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D916" s="3" t="s">
-        <v>806</v>
-      </c>
       <c r="E916" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
@@ -20605,84 +20618,84 @@
         <v>584</v>
       </c>
       <c r="B917" s="8" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C917" s="7" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D917" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E917" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="8" t="s">
-        <v>584</v>
+        <v>1165</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C918" s="7" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D918" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E918" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="919" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="8" t="s">
-        <v>1165</v>
+        <v>1040</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C919" s="7" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E919" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="920" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C920" s="7" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E920" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="921" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="8" t="s">
-        <v>990</v>
+        <v>414</v>
       </c>
       <c r="B921" s="8" t="s">
-        <v>1259</v>
+        <v>506</v>
       </c>
       <c r="C921" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D921" s="3" t="s">
-        <v>806</v>
+        <v>507</v>
+      </c>
+      <c r="D921" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="E921" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="922" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20690,101 +20703,101 @@
         <v>414</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>506</v>
+        <v>1261</v>
       </c>
       <c r="C922" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D922" s="9" t="s">
-        <v>859</v>
+        <v>1262</v>
+      </c>
+      <c r="D922" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="E922" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="923" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="8" t="s">
-        <v>414</v>
+        <v>194</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C923" s="7" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D923" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E923" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="924" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="8" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C924" s="7" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D924" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E924" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="925" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="8" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="B925" s="8" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C925" s="7" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D925" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E925" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="926" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="8" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C926" s="7" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E926" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="927" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="8" t="s">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C927" s="7" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D927" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E927" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="928" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20792,203 +20805,203 @@
         <v>414</v>
       </c>
       <c r="B928" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C928" s="7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D928" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E928" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="929" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="8" t="s">
-        <v>414</v>
+        <v>990</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C929" s="7" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E929" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="930" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="8" t="s">
-        <v>990</v>
+        <v>822</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C930" s="7" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D930" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E930" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="931" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="8" t="s">
-        <v>822</v>
+        <v>954</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C931" s="7" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E931" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="8" t="s">
-        <v>954</v>
+        <v>137</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C932" s="7" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D932" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E932" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="933" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="8" t="s">
-        <v>137</v>
+        <v>1040</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C933" s="7" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E933" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="934" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C934" s="7" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="D934" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E934" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="935" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="8" t="s">
-        <v>990</v>
+        <v>194</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C935" s="7" t="s">
-        <v>1359</v>
+        <v>1287</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E935" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="936" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="8" t="s">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C936" s="7" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D936" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E936" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="937" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="8" t="s">
-        <v>414</v>
+        <v>1165</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C937" s="7" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D937" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E937" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="938" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="8" t="s">
-        <v>1165</v>
+        <v>1007</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C938" s="7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D938" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E938" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="8" t="s">
-        <v>1007</v>
+        <v>1165</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C939" s="7" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D939" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E939" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="940" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20996,186 +21009,186 @@
         <v>1165</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C940" s="7" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D940" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D940" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E940" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="941" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="8" t="s">
-        <v>1165</v>
+        <v>990</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C941" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D941" s="9" t="s">
-        <v>392</v>
+        <v>1299</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="E941" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="942" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="8" t="s">
-        <v>990</v>
+        <v>253</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C942" s="7" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D942" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E942" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="943" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="8" t="s">
-        <v>253</v>
+        <v>990</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D943" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E943" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="944" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="8" t="s">
-        <v>990</v>
+        <v>126</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C944" s="7" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D944" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E944" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="945" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="8" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C945" s="7" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E945" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="946" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="8" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C946" s="7" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D946" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E946" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="947" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="8" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C947" s="7" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D947" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E947" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="948" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B948" s="8" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C948" s="7" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D948" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E948" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="949" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="8" t="s">
-        <v>137</v>
+        <v>1040</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C949" s="7" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D949" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E949" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="950" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="8" t="s">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>1314</v>
+        <v>514</v>
       </c>
       <c r="C950" s="7" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E950" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="951" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21183,16 +21196,16 @@
         <v>840</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>514</v>
+        <v>1317</v>
       </c>
       <c r="C951" s="7" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E951" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="952" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21200,33 +21213,33 @@
         <v>840</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C952" s="7" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D952" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E952" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="953" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="8" t="s">
-        <v>840</v>
+        <v>414</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C953" s="7" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D953" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E953" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="954" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21234,67 +21247,67 @@
         <v>414</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C954" s="7" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D954" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E954" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="955" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="8" t="s">
-        <v>414</v>
+        <v>822</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C955" s="7" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E955" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="956" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="8" t="s">
-        <v>822</v>
+        <v>1020</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C956" s="7" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>806</v>
+        <v>1231</v>
       </c>
       <c r="E956" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="957" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="8" t="s">
-        <v>1020</v>
+        <v>414</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C957" s="7" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>1231</v>
+        <v>392</v>
       </c>
       <c r="E957" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="958" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21302,16 +21315,16 @@
         <v>414</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C958" s="7" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D958" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E958" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="959" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21319,16 +21332,16 @@
         <v>414</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C959" s="7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D959" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E959" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="960" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21336,50 +21349,50 @@
         <v>414</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C960" s="7" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D960" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E960" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="961" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="8" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>1335</v>
+        <v>1361</v>
       </c>
       <c r="C961" s="7" t="s">
-        <v>1336</v>
+        <v>1402</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E961" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="962" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="8" t="s">
-        <v>597</v>
+        <v>346</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C962" s="7" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1362</v>
+        <v>392</v>
       </c>
       <c r="E962" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="963" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21396,7 +21409,7 @@
         <v>392</v>
       </c>
       <c r="E963" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="964" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21413,199 +21426,199 @@
         <v>392</v>
       </c>
       <c r="E964" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="965" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="8" t="s">
-        <v>346</v>
+        <v>640</v>
       </c>
       <c r="B965" s="8" t="s">
         <v>1365</v>
       </c>
       <c r="C965" s="7" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="D965" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E965" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="966" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="8" t="s">
-        <v>640</v>
+        <v>1040</v>
       </c>
       <c r="B966" s="8" t="s">
         <v>1366</v>
       </c>
       <c r="C966" s="7" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E966" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="967" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="8" t="s">
-        <v>1040</v>
+        <v>346</v>
       </c>
       <c r="B967" s="8" t="s">
         <v>1367</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>1413</v>
+        <v>1424</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E967" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="968" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="8" t="s">
-        <v>346</v>
+        <v>1192</v>
       </c>
       <c r="B968" s="8" t="s">
         <v>1368</v>
       </c>
       <c r="C968" s="7" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D968" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E968" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="969" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="8" t="s">
-        <v>1192</v>
+        <v>1007</v>
       </c>
       <c r="B969" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C969" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D969" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="C969" s="7" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D969" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E969" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="970" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="8" t="s">
-        <v>1007</v>
+        <v>1192</v>
       </c>
       <c r="B970" s="8" t="s">
         <v>1371</v>
       </c>
       <c r="C970" s="7" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1370</v>
+        <v>392</v>
       </c>
       <c r="E970" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="971" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="8" t="s">
-        <v>1192</v>
+        <v>1040</v>
       </c>
       <c r="B971" s="8" t="s">
         <v>1372</v>
       </c>
       <c r="C971" s="7" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E971" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="972" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="8" t="s">
-        <v>1040</v>
+        <v>26</v>
       </c>
       <c r="B972" s="8" t="s">
         <v>1373</v>
       </c>
       <c r="C972" s="7" t="s">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E972" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="973" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="8" t="s">
-        <v>26</v>
+        <v>1040</v>
       </c>
       <c r="B973" s="8" t="s">
         <v>1374</v>
       </c>
       <c r="C973" s="7" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="D973" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E973" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="974" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="8" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="B974" s="8" t="s">
         <v>1375</v>
       </c>
       <c r="C974" s="7" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E974" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="975" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="8" t="s">
-        <v>990</v>
+        <v>954</v>
       </c>
       <c r="B975" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C975" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D975" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="C975" s="7" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D975" s="3" t="s">
-        <v>806</v>
-      </c>
       <c r="E975" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="976" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="8" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
       <c r="B976" s="8" t="s">
         <v>1378</v>
@@ -21614,112 +21627,112 @@
         <v>1405</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1377</v>
+        <v>806</v>
       </c>
       <c r="E976" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="977" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="8" t="s">
-        <v>1248</v>
+        <v>552</v>
       </c>
       <c r="B977" s="8" t="s">
         <v>1379</v>
       </c>
       <c r="C977" s="7" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="D977" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E977" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="978" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="8" t="s">
-        <v>552</v>
+        <v>1248</v>
       </c>
       <c r="B978" s="8" t="s">
         <v>1380</v>
       </c>
       <c r="C978" s="7" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D978" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E978" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="979" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="8" t="s">
-        <v>1248</v>
+        <v>1381</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C979" s="7" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E979" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="980" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="8" t="s">
-        <v>1382</v>
+        <v>137</v>
       </c>
       <c r="B980" s="8" t="s">
         <v>1383</v>
       </c>
       <c r="C980" s="7" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D980" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E980" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="981" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="8" t="s">
-        <v>137</v>
+        <v>990</v>
       </c>
       <c r="B981" s="8" t="s">
         <v>1384</v>
       </c>
       <c r="C981" s="7" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E981" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="982" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="8" t="s">
-        <v>990</v>
+        <v>1165</v>
       </c>
       <c r="B982" s="8" t="s">
         <v>1385</v>
       </c>
       <c r="C982" s="7" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E982" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="983" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21736,46 +21749,46 @@
         <v>392</v>
       </c>
       <c r="E983" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="984" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="8" t="s">
-        <v>1165</v>
+        <v>137</v>
       </c>
       <c r="B984" s="8" t="s">
         <v>1387</v>
       </c>
       <c r="C984" s="7" t="s">
-        <v>1419</v>
+        <v>1396</v>
       </c>
       <c r="D984" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E984" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="985" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="8" t="s">
-        <v>137</v>
+        <v>1381</v>
       </c>
       <c r="B985" s="8" t="s">
         <v>1388</v>
       </c>
       <c r="C985" s="7" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D985" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E985" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="986" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B986" s="8" t="s">
         <v>1389</v>
@@ -21787,113 +21800,96 @@
         <v>392</v>
       </c>
       <c r="E986" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="987" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="8" t="s">
-        <v>1382</v>
+        <v>1248</v>
       </c>
       <c r="B987" s="8" t="s">
         <v>1390</v>
       </c>
       <c r="C987" s="7" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>392</v>
+        <v>806</v>
       </c>
       <c r="E987" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="988" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="8" t="s">
-        <v>1248</v>
+        <v>1040</v>
       </c>
       <c r="B988" s="8" t="s">
         <v>1391</v>
       </c>
       <c r="C988" s="7" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="D988" s="3" t="s">
-        <v>806</v>
+        <v>392</v>
       </c>
       <c r="E988" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="989" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="8" t="s">
-        <v>1040</v>
+        <v>1381</v>
       </c>
       <c r="B989" s="8" t="s">
         <v>1392</v>
       </c>
       <c r="C989" s="7" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="D989" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E989" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="990" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="8" t="s">
-        <v>1382</v>
+        <v>137</v>
       </c>
       <c r="B990" s="8" t="s">
         <v>1393</v>
       </c>
       <c r="C990" s="7" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="D990" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E990" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="991" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="8" t="s">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="B991" s="8" t="s">
         <v>1394</v>
       </c>
       <c r="C991" s="7" t="s">
-        <v>1398</v>
+        <v>1416</v>
       </c>
       <c r="D991" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E991" s="6" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="992" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B992" s="8" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C992" s="7" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D992" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E992" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:E992"/>
+  <autoFilter ref="A7:E991"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
